--- a/news_data/2021_05.xlsx
+++ b/news_data/2021_05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,66 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>여름 성수기 관광객 몰린다…제주도 코로나19 방역 '비상'</t>
+  </si>
+  <si>
+    <t>김녕농협, 제주도관광협회와 동복리서 '농촌 일손 돕기' 활동</t>
+  </si>
+  <si>
+    <t>제주도, 27일 ‘해양레저관광거점사업’ 착공식 개최</t>
+  </si>
+  <si>
+    <t>'턱스크 관광객' 몰리던 제주도, 결국 거리두기 2단계 격상한다</t>
+  </si>
+  <si>
+    <t>'제주도 연수 논란'에 공주시의회 "관광 아닌 역량 강화"</t>
+  </si>
+  <si>
+    <t>입도 관광객 17% 이상 증가...제주도, 방역고삐 바짝 당긴다</t>
+  </si>
+  <si>
+    <t>제주도, 관광개발사업장 투자진흥지구 투자 실적 공표</t>
+  </si>
+  <si>
+    <t>제주도로 몰리는 관광객…코로나 이전 90% 수준 회복</t>
+  </si>
+  <si>
+    <t>제주도, 해양관광 메카로 약진...해양레저관광거점사업 착공</t>
+  </si>
+  <si>
+    <t>관광객 몰린 제주도, 코로나19로 몸살</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 렌터카 사고 잦은 6곳 도로 개선 나서</t>
+  </si>
+  <si>
+    <t>"롯데관광개발, 제주도 여행수요 수혜…카지노 내달 개장"-하나금융</t>
+  </si>
+  <si>
+    <t>롯데관광개발 vs 제주도소상공인, 상생의 길로 나아가나</t>
+  </si>
+  <si>
+    <t>제주도의회 오영희 의원 '제주관광 활성화 방안 간담회' 개최</t>
+  </si>
+  <si>
+    <t>제주도, 휠체어로 접근가능한 관광지 길 안내 추진</t>
+  </si>
+  <si>
+    <t>제주도의회, 지속가능한 제주관광산업 활성화 방안 모색 간담회</t>
+  </si>
+  <si>
+    <t>제주자치경찰단, 제주도내 주요 관광지 특별방역순찰 강화</t>
+  </si>
+  <si>
+    <t>관광객 몰리는 제주도, ‘알바’자리 가장 많이 늘어</t>
+  </si>
+  <si>
+    <t>제주도, 관광지·교통·숙박업·여행업·음식업 대상 우수업체 공모</t>
+  </si>
+  <si>
+    <t>오메가엑스, 제주특별자치도관광협회 제주관광 명예 홍보대사 위촉…“제주도...</t>
+  </si>
+  <si>
     <t>제주도, 방역 관광 청정 이미지 제고에 나선다</t>
   </si>
   <si>
@@ -52,31 +112,76 @@
     <t>오메가엑스, 제주관광 명예 홍보대사 발탁…“제주도 전 세계에 알릴 것”</t>
   </si>
   <si>
-    <t>제주도, 방역 관광 청정 이미지 제고에 나선다 최종편집 2022년 10월 04일 11시 18분 제보 문의 회원가입 로그인 홈 정치 경제 사회 세계 문화 Books 전국 스페셜 협동조합 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 홈 정치 경제 사회 세계 문화 Books 전국 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 스페셜 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 협동조합 제주도, 방역 관광 청정 이미지 제고에 나선다 정기후원 제주도, 방역 관광 청정 이미지 제고에 나선다 현창민 기자(=제주) | 기사입력 2021.05.06. 14:42:41 페이스북 트위터 카카오스토리 밴드 URL복사 제주도가 제주를 찾는 방문객들에게 안전하고 친절한 청정 제주관광 이미지 제고에 나선다. ▲제주도가 제주를 찾는 방문객들에게 안전하고 친절한 청정 제주관광 이미지 제고에 나선다.ⓒ프레시안(현창민) 제주도는 5월 가정의 달을 맞아 위드코로나 시대 방역·관광 공존을 위한 안전+친절 제주관광이미지 확산 캠페인을 집중 추진한다고 6일 밝혔다. 제주지역은 최근 봄 성수기와 5월 가정의 달 연휴를 맞아 관광객이 급증세를 보이고 있으나 불친절 골프장과 렌터카 등에서 관광요금 인상에 대한 관광 민원이 지속적으로 발생하고 있는 실정이다. 이에 따라 도는 지난 4월 26일 제주관광 이미지 제고를 위한 관계기관과 긴급회의를 개최하고 사업체를 포함해 유관기관 및 관련부서 주관으로 안전+친절 제주관광이미지 확산 추진계획을 마련했다. 주요 중점 추진사항으로는 코로나19 방역계도와 병행해 친절 및 공정가격 등 제주관광 이미지 제고를 위한 활동을 전개한다. 코로나19 방역관련으로는 △5월 가정의 달 방역‧관광 공존의 관광수용태세 계도 △도내 관광사업체 방역물품 지속 지원 △공항 내 코로나19 방역캠페인 전개 등을 지속 추진한다. 이와 함께 관광지 친절 및 공정가격 등 제주관광 이미지 제고를 위해 △건전관광 질서 확립을 위한 불공정행위 합동단속 △도지사 핫라인-관광불편신고센터 운영 △기관 및 부서별 공정가격 받기 자정운동을 전개한다. 앞서 제주도는 부서별 공정가격 받기 자정운동을 위해 도 교통정책과(렌터카 운영상황 계도)와 경제정책과(지방물가 안정화 관리 강화 및 도 소비생활센터 피해사례 상담) 도 관광협회(렌터카, 골프장 등 분과별 자정 노력 캠페인 전개) 관광공사(비짓제주 리뷰 이벤트 '내맘속의 착한 업체'진행)등 관계기관 별로 건전 관광 이미지 제고를 위한 자정 운동을 펼치고 있다. 김재웅 도 관광국장은 “제주도를 중심으로 유관기관 및 도내 관광사업체의 자발적이고 적극적인 방역준수와 친절 및 공정가격 책정을 위한 다양한 캠페인을 전개하고 있다"고 밝혔다. 이 기사의 구독료를 내고 싶습니다. 3,000 5,000 10,000 30,000 50,000 +1,000 원 추가 +10,000 원 추가 -1,000 원 추가 -10,000 원 추가 매번 결제가 번거롭다면 CMS 정기후원하기 10,000 원 결제하기 일부 인터넷 환경에서는 결제가 원활히 진행되지 않을 수 있습니다. 343601-04-082252 [예금주 프레시안협동조합(후원금)]으로 계좌이체도 가능합니다. 기사 후원에 참여해 주셔서 감사합니다. 후원기사 제주도, 방역 관광 청정 이미지 제고에 나선다 익명으로 후원하기 이름 핸드폰번호 이메일 @ 직접입력 naver.com hanmail.net nate.com korea.com gmail.com 금액 결제방법 휴대폰소액결제 신용카드 계좌이체 ※입력하신 개인정보는 후원 관련 문의시 식별정보 이외의 목적으로 활용되지 않습니다. ※익명으로 후원하시면 프레시안은 개인정보를 수집하지 않으나, 향후 결제를 취소할 때 처리가 지연될 수 있습니다. 계좌이체는 신청 할 수 없습니다. 취소 확인 현창민 기자 pressianjeju@gmail.com 제주취재본부 현창민 기자입니다. 최근글보기 NAVER 에서 현창민 기자 를 구독·응원해주세요 프레시안에 제보하기 프레시안에 CMS 정기후원하기 전체댓글 0 등록 최신순 조합소개 기사제보 저작권 정책 이메일 무단수집거부 개인정보취급방침 청소년보호방침 RSS 프레시안협동조합 | 사업자번호 101-81-69524 | 대표 박인규 제호: 프레시안 | 신문사업·인터넷신문사업 등록번호 서울아00083 | 창간 2001.9.24 | 등록 2005.10.12 | 발행인·편집인 박인규 | 청소년보호책임자 김우정 (04043) 서울시 마포구 서교동 395-73 BK빌딩 101호(양화로 10길 49 BK빌딩 101호) | 02-722-8494 | FAX 02-6008-8400 Copyrightⓒ Pressian Coop. All rights reserved.</t>
-  </si>
-  <si>
-    <t>롯데관광개발, 제주도 관광 수요 폭발에 '방긋' &lt; 증권 &lt; 금융/증권 &lt; 기사본문 - 이코노믹리뷰 상단영역 관리자로그인 전체메뉴 버튼 산업 금융/증권 IT/스타트업 CEO GO-ESG Life &amp; 로그인 로그인 회원가입 기사검색 검색 2022-10-04 11:11 (화) 실시간 한국거래소, WOORI 미국 S&amp;P500 ETF 신규 상장 하나은행 'GLN인터내셔널', 베트남 현지 QR 출금 서비스 개시 유진투자선물, 올해 마지막 해외선물 실전투자대회 개최 남양유업, ‘패밀리 장학금’ 6000만원 지급…누적 12억원 돌파 LG전자 “혁신 기술로 고객경험 차별화한다” 동원F&amp;B, ‘덴마크 오리진’ 컵커피 누적 판매 1500만개 돌파 KB증권, 연금계좌 ETF 매수 이벤트 실시 웅진씽크빅, ‘판타스틱 어휘365’ 출시 에이비엘바이오, 이중항체 ‘ABL301’ 美 임상 1상 IND 신청 비상교육, ‘디지털 영어 학습 솔루션’ 베트남 수출 본문영역 이전 기사보기 다음 기사보기 롯데관광개발, 제주도 관광 수요 폭발에 '방긋' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 롯데관광개발, 제주도 관광 수요 폭발에 '방긋' 4월 제주도 관광 102만명…이달 60만명 제주 호텔 객실 판매량 '폭발' "대차잔고 증가는 주가에 부담" 기자명 노성인 기자 입력 2021.05.18 20:59 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주 드림타워 복합리조트 전경. 출처=롯데관광개발 [이코노믹리뷰=노성인 기자] 롯데관광개발(032350)이 제주도 관광 수요 폭발에 힘입어 반등하고 있다. 다음 달 제주 드림타워 내 외국인 대상 카지노 개장도 앞두고 있어 추가 상승 모멘텀 또한 충분하다는 분석이다. 18일 한국거래소에 따르면 롯데관광개발은 전 거래일 대비 650원(3.35%) 상승한 2만50원에 거래를 마쳤다. 연초(1만5,150원) 대비 32.34% 상승했다. 같은 기간 코스피 상승률(7.76%)을 큰 폭 상회하는 수준이다. 코로나19에 해외여행이 막히자 제주도로 관광객이 몰린 것이 주 원인이다. 게다가 올해 하반기 코로나19 백신 접종이 확산되면 여행수요가 되살아날 것이라는 기대감이 주가에 강하게 작용하고 있는 것으로 분석된다. 4월 제주도 관광객 102만명…전년比 108%↑ 제주도관광협회에 따르면 4월 제주도 누적 관광객은 102만8,539명으로 작년 4월(49만4,383명)과 비교해 108% 늘었다. 코로나 사태 이전인 2019년 4월(115만8,666명)과 비슷한 수준으로 회복했다. 이달에도 60만명 이상이 몰린 것으로 집계됐다. 제주도 관광이 급증하면서 롯데관광개발의 제주 드림타워가 개장 초부터 빠르게 인지도를 확대하고 있다는 평가다. 작년 12월 롯데관광개발은 제주 드림타워 복합리조트를 공식 개장했다. 제주 드림타워는 169m, 38층 규모의 제주 최고층 건물이다. 해당 건물 내에는 1,600개 스위트 객실을 보유한 그랜드 하얏트 호텔이 있다. 지난 9일 현대홈쇼핑에서 진행한 제주 드림타워 내 그랜드 하얏트 제주 호텔 객실 패키지 방송에서 70분 만에 1만24실이 판매되는 등 큰 인기를 끌고 있다. 제주 드림타워는 지난 2월 이후 85일 동안 5차례 홈쇼핑을 통해서만 3만8,600실의 판매고를 기록한 것으로 알려졌다. 이에 5월 예약 기준 객실점유율은 90%를 넘어선 것으로 파악됐다. 이기훈 하나금융투자 연구원은 “7월 성수기에 이미 타워1의 객실 750실 이상이 예약되면서 객실 850실을 갖춘 타워2까지 개장을 시작한다. 3분기 예상 객실 판매는 최소 9만실 이상이다”며 “호텔만으로 분기 BEP(손익분기점) 내외까지 가능한 수준이다. 타워2 개장 시에도 인건비와 같은 고정비 증가는 크지 않을 것이다”고 설명했다. 롯데관광개발은 올해 1분기 매출액과 영업손익은 각각 122억원과 378억원의 손실을 기록했지만,  올 6월 제주 드림타워 내 국내 거주하는 외국인을 대상으로 한 카지노 개장을 계기로 실적이 반등할 것으로 기대된다. 카지노 개장 시점에 맞춰 호텔 객실 시설까지 모두 가동될 것으로 보이는 가운데 식음료 등 부대시설의 매출도 호텔 객실과 비례해서 성장할 것으로 추정되기 때문이다. 카지노 매출이 연 4,000억원만 돼도 이자비용을 600억원이라고 가정했을 때 순이익 1,000억원이 가능할 것이라는 전망이 나온다. 롯데관광개발 대차잔고 추이. 출처=한국예탁결제원 롯데관광개발 대차잔고 확대 중…"투자주의" 다만 일각에서는 이달 초 공매도 재개 이후 롯데관광개발 대차잔고가 확대되고 있어 투자에 주의가 필요하다는 지적이 나온다. 롯데관광개발의 대차잔고는 이달 초 182만1,681건에서 지난 17일 257만2,638건으로 증가했다. 대차잔고는 투자자들이 주식을 빌린 뒤 갚지 않은 물량을 말한다. 이 잔고를 청산하기 위해서는 숏커버링을 해야 한다. 보유한 물량으로 되갚거나 매도했다면 판 수량만큼 다시 사야 한다. 때문에 대차잔고가 늘어난다는 것은 공매도를 위해 빌린 주식 규모가 늘어난다는 것으로 풀이된다. 즉 롯데관광개발이 향후 하락할 것으로 보는 투자자도 많다는 의미이다. SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 키워드 #이코노믹리뷰 #노성인 #하나금융 #백신 #코로나 #코로나19 #코로나19 백신 #한국거래소 #현대 #홈쇼핑 #롯데 #현대홈쇼핑 #대상 #쇼핑 노성인 기자 nosi3230@econovill.com 다른기사 보기 구독신청하러 가기 경제를 리뷰, 미래를 본다 © 이코노믹리뷰 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 금융/증권 인기뉴스 1 [떠오르는 퇴직연금]③ 판 커진 퇴직연금 시장…은행으로 ‘머니무브’ 2 카카오뱅크, 가명정보 활용 우수사례 경진대회 대상 3 우대금리·비과세 ‘장병내일준비적금’ 인기…7개월만 5만명 ↑ 4 [떠오르는 퇴직연금]① “노후대비 절실”…연금 시장이 변한다 5 [주간증시전망] 당분간 종목장세 지속…“K엔터주 등 주목” ER포토 [ER포토]조니워커 아시아 최대 영화축제 함께한다! [ER포토]조니워커, 부산국제영화제 공식 후원 Investing.com 한국어 가 운영하는 기술적 분석 요약 위젯 하단영역 하단메뉴 회사소개 채용정보 기사제보 광고문의 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 UPDATED. 2022-10-04 11:11 (화) 매체정보 서울특별시 종로구 삼일대로 469 3F, 이코노믹리뷰 (경운동,서원빌딩) 대표전화 : 02-6321-3000 팩스 : 02-6321-3001 기사문의 : 02-6321-3042 광고문의 : 02-6321-3012 등록번호 : 서울 아 03560 발행인·편집인 : 주태영 편집국장 : 황대영 광고마케팅국 : 고동훈 청소년보호책임자 : 김상곤 이코노믹리뷰의 모든 콘텐츠는 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 이코노믹리뷰. All rights reserved. 위로 전체메뉴 전체기사 산업 일반 전자 자동차 항공/조선/철강 에너지/화학/정유 중소기업 금융/증권 일반 1금융 2금융 증권 IT/스타트업 일반 IT/스타트업 통신 게임 블록체인 건설/부동산 일반 건설 부동산 생활경제 일반 제약/바이오 일반 종합 일반 ER포토 인사/부고 오피니언 일반 편집국에서 기자수첩 전문가칼럼 라이프 일반 서평 운세 타임피스 OTT픽 플레이G 헬스케어 IT여담 커버스토리 전체메뉴닫기</t>
+    <t>여름 성수기 관광객 몰린다…제주도 코로나19 방역 '비상' | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 여름 성수기 관광객 몰린다…제주도 코로나19 방역 '비상' 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 여름 성수기 관광객 몰린다…제주도 코로나19 방역 '비상' 송고시간2021-05-30 16:00 요약 beta 닫기 제주도는 여름철 관광 성수기에 대비해 신종 코로나바이러스 감염증(코로나19) 방역실태를 점검하고 강력한 계도 활동에 나선다고 30일 밝혔다. 도는 제주국제공항·관광사업체·유원지·공영관광지 등을 돌면서 마스크 착용 의무화 등 방역 수칙을 집중 안내하고 사회적 거리두기 현장 계도 활동을 벌이며, 제주형 출입명부인 '제주안심코드' 사용을 홍보한다. 제주관광공사·관광협회 등 유관기관과 함께 관광숙박업·유원시설·카지노 등 도내 관광사업체 1천500여 곳을 대상으로 방역 실태를 점검하고, 공영관광지 60곳을 대상으로 입장객 제한 운영과 거리두기 상황도 확인한다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 전지혜 기자 기자 페이지 올 방문객 전년비 18% 급증…관광지·유원시설 입장객 ⅓로 제한 (제주=연합뉴스) 전지혜 기자 = 제주도는 여름철 관광 성수기에 대비해 신종 코로나바이러스 감염증(코로나19) 방역실태를 점검하고 강력한 계도 활동에 나선다고 30일 밝혔다. 제주 코로나 비상(CG) [연합뉴스TV 제공] 도는 제주국제공항·관광사업체·유원지·공영관광지 등을 돌면서 마스크 착용 의무화 등 방역 수칙을 집중 안내하고 사회적 거리두기 현장 계도 활동을 벌이며, 제주형 출입명부인 '제주안심코드' 사용을 홍보한다. 제주관광공사·관광협회 등 유관기관과 함께 관광숙박업·유원시설·카지노 등 도내 관광사업체 1천500여 곳을 대상으로 방역 실태를 점검하고, 공영관광지 60곳을 대상으로 입장객 제한 운영과 거리두기 상황도 확인한다. 광고 각 현장에서는 마스크·손소독제 등 방역물품 지원과 함께 주기적 방역, 종사자 위생 관리, 안심코드 등을 활용한 출입자 관리 등이 잘 지켜지고 있는지 점검한다. 제주에서는 오는 31일부터 사회적 거리두기 단계가 2단계로 격상되는 가운데 '제주형 특별방역 11차 행정조치' 고시에 따라 유원시설 입장객은 수용 가능 인원의 3분의 1로 제한된다. 공영관광지인 성산일출봉, 비자림, 만장굴, 교래자연휴양림, 천제연폭포, 천지연폭포, 산방산, 돌문화공원 등도 입장객을 일일 수용 인원의 30%로 제한해 운영한다. 올해 들어 제주를 방문한 관광객은 지난 29일 기준 427만1천401명으로, 지난해 같은 기간 대비 18.2% 증가했다. atoz@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/05/30 16:00 송고 #제주도 #코로나19 #방역 #성수기 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 36 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>김녕농협, 제주도관광협회와 동복리서 '농촌 일손 돕기' 활동 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 김녕농협, 제주도관광협회와 동복리서 '농촌 일손 돕기' 활동 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 김녕농협, 제주도관광협회와 동복리서 '농촌 일손 돕기' 활동 이창준 기자 headlinejeju@headlinejeju.co.kr 승인 2021.05.30 12:06 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 김녕농협(오충규 조합장)은 도농상생을 위해 추진한 '함께하는 마을 만들기' 운동에 지난 28일 제주특별자치도관광협회(회장 부동석)가 동참했다고 30일 전했다. 이날 '함께하는 마을 만들기'는 부동석 회장과 임직원 50여명이 참석한 가운데 동복리(리장 김병수)에서 농촌 일을 도우며 진행됐다. 부동석 회장은 "이번 농촌일손돕기 행사가 일시적인 이벤트가 아닌 지속적 교류의 장이 될 수 있도록 함께하는 농촌마을 만들기에 앞장서겠다"고 말했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 이창준 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>‘턱스크 관광객’ 몰리던 제주도, 결국 거리두기 2단계 격상한다 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 16℃ 서울 13℃ 인천 15℃ 춘천 16℃ 강릉 15℃ 수원 15℃ 청주 16℃ 대전 16℃ 전주 17℃ 광주 17℃ 대구 17℃ 부산 16℃ 제주 '턱스크 관광객' 몰리던 제주도, 결국 거리두기 2단계 격상한다 제주 사회적 거리두기 단계가 현행 1.5단계에서 2단계로 격상된다. 김소영 기자 입력 2021.05.28 16:21 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 뉴스1[인사이트] 김소영 기자 = 제주의 사회적 거리두기 단계가 현행 1.5단계에서 2단계로 격상된다.기간은 오는 31일부터 2주간 적용될 예정이다.최근 일주일 간 감염경로가 미확인된 '깜깜이 감염' 관련 확진자가 45명에 달하면서 관광객이 몰려 확진자가 증가하는 것 아니냐는 우려가 지속되고 있다.28일 제주특별자치도에 따르면 이달 신규 코로나19 확진자 288명 중 15%인 44명은 감염경로가 확인되지 않았다.뉴스1제주 곳곳에 확인되지 않은 추가 감염자가 있을 수 있단 우려가 나오는 이유다.추가 감염이 확산될 경우 제주 내 코로나 4차 대유행이 발생할 수 있다는 분석이다.제주 방역당국은 다음 달 13일까지 2주간 확산세 억제를 위한 '집중 방역 점검기간'을 다시 운영한다.지난 27일 원희룡 제주지사는 도청 한라홀에서 '코로나19 대응상황 점검회의'를 열고 "코로나19 발생 확대 추세를 잡기 위한 방역 조치가 필요하다. 총괄 부서를 중심으로 사회적 거리두기 격상 여부와 방역 조치 강화 여부를 신중히 검토하라"고 주문했다.뉴스1 원 지사는 "지난주 한 자리 수 확진자 발생 추세를 유지했으나 최근 다시 늘고 있다"며 "특히 기존 여행객 전파에서 가족, 지인, 동료 등 지역 전파 양상으로 달라지고 있다"고 전했다.한편 지난 4월 제주를 방문한 관광객은 108만 2861명이다.전년 동기 54만 2258명의 2배 수준이다. 또 이달 들어서도 26일까지 93만 5798명이 제주를 찾았다.이는 지난해 같은 기간 62만5854명 대비 49.5% 늘어난 양상이다. 김소영 기자 · soyoung@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>'제주도 연수 논란'에 공주시의회 "관광 아닌 역량 강화" - 전국 &gt; 기사 - 더팩트 HOME &gt; NEWS &gt; 전국 &gt; 대전세종충청 '제주도 연수 논란'에 공주시의회 "관광 아닌 역량 강화" 입력: 2021.05.27 17:22 / 수정: 2021.05.27 17:22 공주시의회가 27일 제주도 연수 논란에 대해 보도자료를 통해 해명했다. 사진은 제225회 공주시의회 임시회 제1차 본회의 장면./공주시의회 홈페이지해명 보도자료에서 "전국 15개 의회 의원들도 참여"[더팩트 | 공주=김다소미 기자] 공주시의회가 신종 코로나바이러스 감염증(코로나19) 비상 시국에 제주도에서 부적절한 행정사무감사 역량 연수를 가졌다는 비판에 대해 해명했다.공주시의회는 27일 보도자료를 내고 "이번 연수는 부패 방지 및 청렴 교육과 지방선거 필승을 위한 의정활동 전략, 정치인의 글쓰기, 올바른 의전과 매너 등 아침부터 저녁까지 빡빡한 일정이었다"며 "한국산업기술원 지방자치연구소가 주관하고 공주시의회 뿐만 아니라 계룡, 아산, 부산, 울산 등 전국의 15개 의회 의원들이 교육에 참여했다"고 말했다.이어 "지역 특성화사업 성공사례 비교를 위해 한라수목원과 도두봉 올레길 조성 현장을 둘러보고 비행기 탑승 전 자투리 시간을 활용해 동문시장을 견학하는 일정도 포함돼 있었다"고 설명했다.그러면서 "코로나19로 엄중한 시기에 적절치 못했다는 시각과 전문 지식을 습득하고 새로운 정책 대안을 연구하는 교육까지 폄하하는 것은 올바르지 못하다는 시각이 교차하고 있다"고 주장했다.이번 연수에 참여한 이종운 공주시의회 의장은 "일부 비판적 시각은 있을 수 있지만 관광을 목적으로 한 관광성 외유는 분명 아니다"며 "행정사무감사와 추경, 시정 질문, 조례 발의 등 역량 강화를 위한 자리였다"고 강조했다.한편 공주참여연대는 26일 성명을 내고 "코로나19 비상 시국에 일부 공주시의원들의 이번 제주도 연수는 시민들의 정서를 무시한 행위이며 선출직 공직자로서 본분을 망각한 일"이라며 연수에 참여한 공주시의원들의 공식적인 사과와 함께 재발 방지를 요구했다.thefactcc@tf.co.kr 발로 뛰는 &lt;더팩트&gt;는 24시간 여러분의 제보를 기다립니다. ▶카카오톡: '더팩트제보' 검색 ▶이메일: jebo@tf.co.kr ▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write - 네이버 메인 더팩트 구독하고 [특종보자▶] - 그곳이 알고싶냐? [영상보기▶] AD 인기기사 실시간 TOP10 정치 경제 사회 연예</t>
+  </si>
+  <si>
+    <t>입도 관광객 17% 이상 증가...제주도, 방역고삐 바짝 당긴다 | 일요신문 본문바로가기 제1587호 뉴스보기 특종/단독 정치 경제 사회 연예 연예계 영화 방송 K-POP 스포츠 야구 축구 스포츠종합 스포츠 하이라이트 경마 문화 건강 여행/레저 전시/공연 생활경제 보도자료 웹세상 책동네 소식 전국 전국뉴스 경인본부 부산/경남 대구/경북 호남 충청본부 강원 제주 월드 해외스타 해외토픽 국제 일요eye 멀티미디어 포토뉴스 TV 연재 일요칼럼 일요캠페인 운세 지난 연재물 기획/연재 탐사보도 만화 완결만화 만화공모전 연재만화 끼 페스티벌 끼 페스티벌 뉴스 끼 페스티벌 영상 끼 페스티벌 포토 경마 서비스 바로가기 정기구독 당신의특종[제보] 로그인 회원가입 페이스북 트위터 유튜브 메인 메뉴 전체서비스 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 기사검색 검색 전체 검색 전체섹션 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 경마 기자 제주 입도 관광객 17% 이상 증가...제주도, 방역고삐 바짝 당긴다 온라인 기사 2021.05.24 10:47 공유하기 기사 공유하기닫기 페이스북 트위터 카카오스토리 카카오톡 링크 복사하기 글자 크기 바꾸기 글자 크기 변경닫기 가ty1 가ty2 가ty3 가ty4 기사 인쇄하기 공항.관광지.전시 행사장 등 점검 주력, 안전 관광에 만전 사진=제주도청 전경 [제주=일요신문] 제주특별자치도가 5월 한 달 동안 제주국제공항과 관광사업체.공영관광지 등을 중심으로 마스크 착용 의무화 등 방역 수칙을 집중 안내하고, 방역 실태 점검 등에 나서며 안전 관광 홍보에 주력하고 있다.최근 제주를 방문하는 관광객이 전년 동기 대비 약 17.5% 증가한 것으로 나타나 마스크 착용과 위험 요소에 대한 방역과 강력한 계도 활동을 줄이겠다는 취지다.먼저 도는 지난 1일부터 이달 말까지 공항, 관광사업체, 유원지, 카지도업장 등을 돌며 관광객과 도민들의 불편을 최소화하고 사회적 거리두기 현장 계도와 제주형 출입명부인 제주안심코드 등을 중점적으로 홍보하고 있다.또 지난달 25일부터 입도 관문인 제주국제공항에서는 1층 도착장 대합실 2곳에 8명을 투입해 제주 안심관광앱 설치 홍보 캠페인을 전개하고 있다. 또한 공항 1층에서부터 3층 대합실까지는 4명이 조를 구성해 공항이용객을 대상으로 공항 내 음식 섭취 자제를 권고하고 있다.이와 함께 도.행정시, 제주관광공사, 관광협회 등 유관기관과 공동으로 관광사업체 1800여 개를 대상으로 방역 점검도 병행 중이다. 공영관광지 60개소를 대상으로 입장객 제한 운영 상황과 거리두기 등에 대한 현장 방역 상황도 확인 중이다.이를 통해 방역 관리자 지정, 주기적 방역, 이행수칙 준수, 종사자 위생관리, 안심코드 등을 활용한 출입자 관리 등 방역 수칙 준수 여부를 확인하고 있다.김재웅 도 관광국장은 “봄철을 맞아 관광객이 지속적으로 증가함에 따라 제주안심코드 앱설치 홍보와 활용 등 방역 상황을 중점 점검해 안전한 제주관광이 실현될 수 있도록 만전을 기하겠다”고 밝혔다. 김홍철 제주본부 기자 ilyo99@ilyo.co.kr ▶ 저작권자© 일요신문 무단전재 및 수집, 재배포금지 ▶ 일요신문i는 한국기자협회, 인터넷신문위원회, 일요신문 윤리강령을 준수하고 있습니다. 김홍철 제주본부 기자 기사 더보기 이메일 보내기 기사 인쇄하기 제주 많이 본 뉴스 세기의 대화, 백세 철학자 김형석 교수 제주포럼 찾는다 온라인 기사 ( 2021.06.21 15:50 ) JDC, 제주 스타트업 혁신성장 플랫폼 본격 운영 온라인 기사 ( 2021.06.17 18:53 ) 김태엽 서귀포시장 “경쟁력 강화해 새로운 미래 대비할 터” 온라인 기사 ( 2021.06.21 15:34 ) 제주 기사 더보기 많이 본 뉴스 1 '최강야구' 독립리그 최강팀 성남 맥파이스와 대결, 이홍구 제자들 찾아 2 민주당 "친일 국방 논란, 반일 색깔론 선동으로 잠재울 수 없다" 3 '오은영 리포트 결혼지옥' 외도로 상처받은 노부부 출연 "충격 커" 4 국민의힘 "이재명 '욱일기 발언', 국민 앞에 사죄하라" 5 민주당 "북한, 도발행위 중단해야" 6 '배우는 캠핑짱' 순둥 아르바이트생 김용준, 휘인 "무대에선 프로 가수" 7 '우리들의 차차차' 안현모, 라이머에게 재혼 권장 8 LG 고우석, 이종범 감독 사위 된다…2023년 1월 화촉 썸타임즈 무서운 중2가 온다! 여자 육상 단거리 샛별 배윤진 ‘최강야구’ 윤준호 포수왕국 두산행 소감은? 월드컵 갈 태극전사 누구? 대한민국 vs 코스타리카 A매치 입중계 일요신문U “한국 골프의 미래” 일요신문-초등연맹회장배 현장 속으로… 풍자 전문가가 윤석열 그림 들고 전국투어 하는 까닭 “파업 노동자 손배소는 노동3권 억압 목적…노란봉투법 제정해야” 스타채널 디 오리지널 필로폰 혐의 돈스파이크, 연예계 마약 수사 트리거 되나 세계 패션인 축제 '파리 패션위크' 수놓은 K팝 스타들 '해트트릭' 손흥민 국대 평가전 앞두고 밝은 표정으로 귀국 제주 많이 본 뉴스 1 세기의 대화, 백세 철학자 김형석 교수 제주포럼 찾는다 2 JDC, 제주 스타트업 혁신성장 플랫폼 본격 운영 3 김태엽 서귀포시장 “경쟁력 강화해 새로운 미래 대비할 터” 4 도민사회 분열 조장...오영훈, 송재호, 위성곤의원 사퇴 촉구 5 제주도경제통상진흥원 미국 바이어와 MOU 체결.수출상담회 일요 eye전문가 칼럼 아트 스펙트럼 ‘문화도시’란 자신만의 이야기를 갖춘 도시 하정훈의 육아톡톡 '아이 발달' 위해 부모가 뭘 해야 할까요? 일요신문 신고센터 청소년유해게시물 신고 독자 고충처리 기사제보 띠별 운세 별자리운세 만화 지면 보기 제1587호 발행일 : 2022년 10월 19일 제1586호 발행일 : 2022년 10월 12일 제1585호 발행일 : 2022년 10월 5일 제1584호 발행일 : 2022년 9월 28일 제1583호 발행일 : 2022년 9월 21일 제1582호 발행일 : 2022년 9월 14일 제1581호 발행일 : 2022년 9월 7일 제1580호 발행일 : 2022년 8월 31일 제1579호 발행일 : 2022년 8월 24일 제1578호 발행일 : 2022년 8월 17일 신문 PDF 보기 신문 모아보기 회사소개 개인정보취급방침 이용약관 이메일주소무단수집거부 청소년보호정책 정기구독신청 독자투고 기사제보 청소년유해게시물 신고 독자 고충처리 정정보도 인터넷신문위원회 ㈜일요신문사 서울특별시 용산구 만리재로 192 사업자번호: 106-81-48524 TEL: 02-2198-1515 FAX: 02-738-4675 E-mail : master@ilyo.co.kr 인터넷신문사업등록번호 : 서울, 아04146 인터넷신문사업등록일 : 2016년 8월 29일 일요신문i 발행인/편집인 : 김원양 청소년보호책임자 : 강태선 Copyright(c) 2014 일요신문 All rights reserved. 2022년 10월 11일 (화) 일요신문의 모든 컨텐츠는 저작권법 보호를 받으며, 무단복제 및 복사 배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>제주도, 관광개발사업장 투자진흥지구 투자 실적 공표 최종편집 2022년 10월 11일 14시 52분 제보 문의 회원가입 로그인 홈 정치 경제 사회 세계 문화 Books 전국 스페셜 협동조합 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 홈 정치 경제 사회 세계 문화 Books 전국 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 스페셜 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 협동조합 제주도, 관광개발사업장 투자진흥지구 투자 실적 공표 정기후원 제주도, 관광개발사업장 투자진흥지구 투자 실적 공표 현창민 기자(=제주) | 기사입력 2021.05.24. 15:08:42 페이스북 트위터 카카오스토리 밴드 URL복사 ▲.ⓒ제주 서귀포시 토평동 제주헬스케어타운 전경 제주도가 2020년 12월말 기준 도내 관광개발사업장과 투자진흥지구 61개소에 대한 개발사업장 투자진흥지구사업 추진상황을 공표했다. 이번 공표된 개발사업장 투자진흥지구사업 추진상황은 관광개발21곳 유원지 16곳 투자진흥지구 24곳에 대한 투자 실적과 고용 현황 지역업체 참여 실적이다. 점검 결과 지난해 6월과 비교해 관광개발 투자실적은 1749억 원, 지역업체 공사참여는 141억 원 증가했고 고용 현황은 66명 증가한 것으로 나타났다. 투자 실적은 중문관광단지 헬스케어타운 삼매봉밸리유원지 엠버리조트 프로젝트ECO 에코랜드 색달동농어촌휴양단지 등에서 증가했다. 아울러 고용 현황은 코로나19 장기화로 관광객 대폭 감소와 경영 악화 등의 사유로 고용 실적이 감소했으나 중문관광단지 사업장내 인력 채용으로 소폭 증가한 것으로 파악됐다. 도내 지역업체 공사참여 실적은 2조 9303억 원으로 전체 건설 공사실적 중 50.6%를 차지했다. 지난해 6월 기준과 비교해 141억 원이 증가한 셈이다. 구체적으로 작년 12월 기준 61개 전체 사업장의 투자 실적은 11조 8451억 원(계획대비 64.1%)으로 확인됐다. 고용은 9002명(계획대비 28.3%)으로 이중 도민은 6703명(전체고용실적 대비 74.5%)을 차지하고 있는 것으로 조사됐다. 준공돼 운영 중인 27개 사업장의 경우 계획대비 투자 실적은 100% 초과 달성했으며 고용실적은 89.4%, 지역업체 참여는 61.2%를 보였다. 일부 준공 돼 운영 중이거나 공사 중인 34개 사업장의 경우 투자는 10조 2192억 원(계획대비 60.4%)이며 고용은 7054명(23.8%) 지역업체 공사 참여는 2조 3452억 원(공사실적대비 48.5%)이다. 대규모 사업장의 개발지연에 따라 다소 낮은 실적이나 중문관광단지 삼매봉 밸리유원지 헬스케어타운 사업장 등이 지속 추진됨에 따라 투자가 더욱 활성화될 것으로 전망된다. 한편 제주도는 관광개발사업 승인과 투자진흥지구 지정 사업에 대한 도민의 궁금증을 해소하기 위해 지난 2017년부터 도내 관광개발사업장과 투자진흥지구에 대한 개발사업장 투자진흥지구사업 추진상황을 공표하고 있다. 제주도는 고용 저조와 일부 시설 미 운영 사업장에 대해 사업 정상화와 회복 명령 등 행정처분을 추진할 방침이다. 이 기사의 구독료를 내고 싶습니다. 3,000 5,000 10,000 30,000 50,000 +1,000 원 추가 +10,000 원 추가 -1,000 원 추가 -10,000 원 추가 매번 결제가 번거롭다면 CMS 정기후원하기 10,000 원 결제하기 일부 인터넷 환경에서는 결제가 원활히 진행되지 않을 수 있습니다. 343601-04-082252 [예금주 프레시안협동조합(후원금)]으로 계좌이체도 가능합니다. 기사 후원에 참여해 주셔서 감사합니다. 후원기사 제주도, 관광개발사업장 투자진흥지구 투자 실적 공표 익명으로 후원하기 이름 핸드폰번호 이메일 @ 직접입력 naver.com hanmail.net nate.com korea.com gmail.com 금액 결제방법 휴대폰소액결제 신용카드 계좌이체 ※입력하신 개인정보는 후원 관련 문의시 식별정보 이외의 목적으로 활용되지 않습니다. ※익명으로 후원하시면 프레시안은 개인정보를 수집하지 않으나, 향후 결제를 취소할 때 처리가 지연될 수 있습니다. 계좌이체는 신청 할 수 없습니다. 취소 확인 현창민 기자 pressianjeju@gmail.com 제주취재본부 현창민 기자입니다. 최근글보기 NAVER 에서 현창민 기자 를 구독·응원해주세요 프레시안에 제보하기 프레시안에 CMS 정기후원하기 전체댓글 0 등록 최신순 조합소개 기사제보 저작권 정책 이메일 무단수집거부 개인정보취급방침 청소년보호방침 RSS 프레시안협동조합 | 사업자번호 101-81-69524 | 대표 박인규 제호: 프레시안 | 신문사업·인터넷신문사업 등록번호 서울아00083 | 창간 2001.9.24 | 등록 2005.10.12 | 발행인·편집인 박인규 | 청소년보호책임자 김우정 (04043) 서울시 마포구 서교동 395-73 BK빌딩 101호(양화로 10길 49 BK빌딩 101호) | 02-722-8494 | FAX 02-6008-8400 Copyrightⓒ Pressian Coop. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도로 몰리는 관광객…코로나 이전 90% 수준 회복 &lt; 산업 &lt; 기사본문 - 중소기업신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 14:54 (화) 이슈모아보기 종합 산업 전기전자 중화학 자동차 조선·해운 기계·철강 중소기업 기업 스타트업 소상공인 금융·증권 은행 보험·카드 증권 재테크 건설·부동산 건설 부동산 분양일반 IT·바이오 정보통신 바이오 제약 게임 유통·서비스 에너지 석유 가스 전력 신재생 농림축수산 상생·ESG 포럼·교육 로그인 검색버튼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도로 몰리는 관광객…코로나 이전 90% 수준 회복 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 산업 제주도로 몰리는 관광객…코로나 이전 90% 수준 회복 기자명 송은정 기자 입력 2021.05.27 10:58 수정 2021.05.27 11:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 사진/픽사베이 신종 코로나바이러스 감염증(코로나19) 사태 장기화로 해외여행이 어려운 상황에서 국내 대표 관광지인 제주도로 관광객이 몰리고 있다. 27일 한국문화관광연구원의 '2021년 코로나19의 문화·관광·콘텐츠 영향' 보고서에 따르면 지난 3월 외국으로 나간 우리 국민은 74000명으로 지난해 같은 달 대비 48.4% 줄었다. 지난 1월과 2월 감소율은 각각 96.6%, 93.5%였다. 지난 3월 감소율 하락은 지난해 3월부터 코로나19의 세계적 대유행(팬데믹)이 시작되며 출국자가 급감한 기저효과에 따른 것이다. 국제선 여객기 운항 편수의 경우 지난 3월에 3038편으로 1년 전보다 56.1% 감소했다. 코로나19 사태 이전인 2019년 3월보다는 92.7% 적은 것이다. 이에 반해 올해 국내 대표 관광지 제주도를 찾은 방문객은 늘고 있다. 지난달 제주 입도객은 107만 명으로 1년 전보다 97.3% 증가했다. 증가율은 1월(-62.6%)까지만 해도 마이너스를 보였다. 그러나 2월(26.2%)에 플러스로 돌아선 이후 3월 84.0%, 4월 92.7%로 계속 상승했다. 지난달 제주 입도객은 코로나19 사태 이전인 2019년 4월(129만8000명)보다는 아직 17.6% 적다. 지난달 제주 입도객 중 내국인만 놓고 보면 105만3000명이다. 1년 전보다 94.6% 증가했는데 이는 2019년 4월과 비교하면 9.1% 적은 것이다. 지난달 국내선 여행기 운항 편수는 19105편으로 1년 전보다 103.5% 증가했다. 이는 2년 전과 비교해 19.4% 많은 수치다. 송은정 기자 kitty8972@smedaily.co.kr 다른기사 보기 저작권자 © 중소기업신문 무단전재 및 재배포 금지 당신만 안 본 뉴스 시중은행 정기예금도 연 4% 저축은행보다 이자 더 준다 충성고객에 아이폰14 사전예약 훈풍 상장하는 인텔 자율주행 ‘모빌아이’ 몸값 43조 개미들 “삼성전자 물타기도 지쳤다” '너무 싸다' 삼성전자·하이닉스 3%↑ 반도체주 급등…코스피 2200선 위로 경기 침체 불구 배터리 3사 '탄탄대로' 판가·환율 영향 LG엔솔 영업익 95%↑ MZ 찾는 광화문·강남 빈상가 없다 외국인 많았던 명동은 여전히 울상 시중은행 정기예금도 연 4% 저축은행보다 이자 더 준다 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 카카오뱅크, 주가 부양에 총력전 임직원 자사주 5만4685주 샀다 김포-하네다 노선도 '주 28회→주 56회' 증편 지속적 혁신 주문하는 김승연 회장 70돌 맞아 “어제의 한화 경계해야” 현대모비스, 미래車 '인포테인먼트' 진출 박차 글로벌 SW사 룩소프트와 차세대 플랫폼 개발 택시기사 年 매출 3천만원…배달기사 9천만원 러, 우크라 전역 공습…삼성 현지 사무실도 피해 최신뉴스 민팃 중고폰 매입 기기, SDGs 아이치 엑스포서 소개 코웨이, KCSI 조사 침대·정수기 2개 부문 1위 선정 아워홈, 걸을수록 기부하는 캠페인 '아워워크' 문어에 오징어까지…사조대림, '타코에 꼬치다' 쿠콘-오토커넥션, 신차담보 대출비교 서비스 MOU 중소기업뉴스 소진공, ‘대전 0시 뮤직페스티벌’과 함께 청렴 소통 캠페인 실시 코트라·국토부, 태국·튀르키예서 '스마트시티 로드쇼' 연다 영세 중소기업 인력공백 대책없다 8시간 추가연장 근로제 유지해야 국민통합위원회 첫 현장 행보…대·중소기업 상생 위한 목소리 들어 골목상권 위기관리는 '평판'이 좌우 고객신뢰 높으면 고객이 먼저 이해 많이 본 뉴스 1 CPI 발표 앞두고 뉴욕증시 하락…엔비디아 3%↓ 2 롯데 2차전지 소재 수직계열화 ‘착착’ 케미칼, 일진머티리얼즈 인수 본계약 3 코스피 2200 붕괴…환율 1430원 韓 빅스텝·美 CPI 앞두고 또 패닉 4 신한카드, '신한플레이 디스커버' 1주년 기념 이벤트 5 일본, 오늘부터 무비자 입국…항공·숙박 예약률 폭증 6 KB국민카드, KB페이 중심 '원 플랫폼' 서비스 구축 7 이마트24, 핼러윈 앞두고 체험형 프로모션 8 러, 우크라 전역 공습…삼성 현지 사무실도 피해 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 여의대로 24 (전국경제인연합회회관) 10층(여의도동, 전경련회관) 대표전화 : 02)832-6115 팩스 : 02)3423-0228 청소년보호책임자 : 방환미 법인명 : (주)중소기업신문 제호 : 중소기업신문 등록번호 : 서울 아02392 등록일 : 2012-12-18 발행일 : 2012-12-18 발행인 : 김재기 편집인 : 김성회 중소기업신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 중소기업신문. All rights reserved. mail to webmaster@smedaily.co.kr 위로 전체메뉴 전체기사 종합 산업 전체 전기전자 중화학 자동차 조선·해운 기계·철강 산업일반 조선·철강 중소기업 전체 기업 스타트업 소상공인 중소기업일반 금융·증권 전체 은행 보험·카드 증권 재테크 금융·증권일반 건설·부동산 전체 건설 부동산 분양일반 IT·바이오 전체 정보통신 바이오 제약 게임 IT·바이오 일반 유통·서비스 전체 유통·서비스 일반 에너지 전체 석유 가스 전력 신재생 에너지일반 농림축수산 전체 농림축수산일반 상생·ESG 전체 상생·ESG일반 포럼·교육 전체 포럼·교육일반 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 해양관광 메카로 약진...해양레저관광거점사업 착공 - CCTV뉴스 - 황민승 기자 × 전체기사 특집 모아보기 News Focus On People Inside Product Zoom In D-Trend 스토리지 안전산업특집 OT보안특집 UPDATE : 2022-10-11 13:20 (화) 로그인 전체기사 정기구독신청 고객센터 광고문의 스토리지 OT보안 안전산업 News Focus On People Inside Product Zoom In D-Trend 검색 기사검색 검색 회원 로그인 회원가입 이전 다음 제주도, 해양관광 메카로 약진...해양레저관광거점사업 착공 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME News 공공·정책 제주도, 해양관광 메카로 약진...해양레저관광거점사업 착공 황민승 기자 승인 2021.05.27 10:52 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 올 하반기 해양레저체험센터 공사 발주 예정 제주 해양레저체험센터 조감도 [사진=제주특별자치도] 제주도의 해양레저관광 산업을 최전방에서 이끌 거점기지 역할을 할 해양레저체험센터 조성이 첫 발을 내딛었다. 제주특별자치도는 27일 서귀포항만 내 부지에서 해양레저관광거점사업의 착공식을 개최했다고 밝혔다. 해양레저관광거점사업은 전국 7개 권역별 해양레저관광거점을 개발해 언제 어느 곳을 가더라도 즐길거리가 있는 바다를 만드는 해양수산부의 프로젝트다. 제주도의 경우 수중레저에 초점을 맞춘 해양레저체험센터가 건설된다. 이날 착공에 앞서 제주도는 지난해말 기본·실시설계를 완료하고 시공사 선정 등 행정절차를 마무리했다. 이어 해양레저체험센터를 보호하고, 어촌계 소득사업을 위한 정온도 확보를 목표로 파제제 등 해상분야 토목공사를 실시할 계획이다. 이번 사업의 핵심인 해양레저체험센터는 건축면적 2369.24㎡, 연면적 4508.61㎡, 지상 4층 규모로 건축 실시설계가 진행되고 있다. 설계가 완료되면 내년 하반기 중 공사를 발주할 예정이다. 제주도에 따르면 센터 1층에는 상설전시장과 편의시설, 2층에는 회의·기획전시실, 3층에는 실내서핑보드 체험교육장, 4층에는 스킨·스쿠버 다이빙 풀과 관람시설 등이 들어서게 된다. 센터가 문을 열면 제주도민과 관광객들에게 다양한 해양레저 프로그램과 함께 볼거리·즐길거리 등을 겸비한 해양관광의 메카로 자리 잡을 것이라는 게 제주도의 판단이다. 양홍식 제주도 해양수산국장은 “해중·해상 경관을 아우르는 안전하고 매력적인 제주 해양레저관광 거점을 마련할 것”이라며 “해양레저객들에게 휴식, 문화, 여가 공간을 제공함으로써 지역상권 활성화에 따른 지역주민 소득증대로 이어질 수 있을 것으로 기대된다”고 말했다. Tag #제주도 #해양레저 #해양레저체험센터 #해양레저관광거점사업 #해양수산부 저작권자 © CCTV뉴스 무단전재 및 재배포 금지 황민승 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주도, 축산물 위생 안전 5개년 계획 추진 제주 해양수산연구원, 제주연안 수산물 방사능 검사 추진 제주도, 미래 캐시카우로 식품가공산업 육성 본격화 현대차, 제주도 전용 전기차 웹사이트 개설 제주도, 렌터카 전수조사로 ‘전기차 미운행’ 실태 파악 나서 제주도, 어린이 안전통학로 ‘안전제주감귤존’ 운용 제주도, 지속가능 친환경 농업 생태계 조성 박차 제주도, 글로벌 선도 웰니스 관광 도시로 약진 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 가장 많이 본 뉴스 1[IT트렌드] 출입부터 결제까지, 무인 매장 지키는 보안 기술 각광 2[IT트렌드] 교통사고, 이제 AI·빅데이터로 막는다 3[기고] 빠르게 진화하는 사이버 보안 위협 요인의 진단 및 정보 보안 핫 이슈 4윈도우-리눅스 노리는 멀웨어 ‘카오스’ 주의 5안랩, 컴퓨터 드라이버 취약점 이용한 사이버 공격 사례 발표 6LGU+ 등 개인정보 보호법 어긴 8개 사업자에 3120만 원 벌금 부과 7인섹시큐리티, 디지털포렌식 ‘랜섬웨어-가상자산 분석 추적 세미나’ 연다 8스패로우, 연례 고객 초청 행사 ‘PUC 2022’ 성공적 개최 9비자, 코로나19 이후 온라인 금융 사기 양상 보고서 공개 10개인정보 보호법 어긴 바로고-누리집에 약 8600만 원 벌금 부과 이 시각 주요뉴스 세종시, ‘시민 참여로 지속 가능한 국제 안전 도시 만들기 대회’ 개최 세종시, ‘시민 참여로 지속 가능한 국제 안전 도시 만들기 대회’ 개최 독일 IT 보안청장, 러 정보 기관 접촉 혐의로 해임 수순 독일 IT 보안청장, 러 정보 기관 접촉 혐의로 해임 수순 러 해커 킬넷, 美 주요 공항에 디도스 공격 러 해커 킬넷, 美 주요 공항에 디도스 공격 매체소개 광고문의 기사제보 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 법인명 : (주) 테크월드 제호 : CCTV뉴스 08507 서울특별시 금천구 가산디지털1로 168, 1012-1호 (가산동, 우림라이온스밸리 C동) 대표전화 : 02)2026-5700 팩스 : 02)2026-5701 이메일 : webmaster@techworld.co.kr 등록번호 : 서울, 아 03078 등록일 : 2008-06-27 발행일 : 2009-02-19 발행·편집인 : 박한식 청소년보호책임자 : 박지성 Copyright © CCTV뉴스 All rights reserved. 위로</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 렌터카 사고 잦은 6곳 도로 개선 나서 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, 관광객 렌터카 사고 잦은 6곳 도로 개선 나서 파이낸셜뉴스입력 2021.05.17 11:42수정 2021.05.17 11:42 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주경찰청·자치경찰단·도로교통공단과 합동조사사고 다발지역에 총 18억원 투입 10월까지 마무리 제주지역 교통사고 다발 구간. [제주도 제공] [제주=좌승훈 기자] 제주도는 교통사고가 자주 발생하는 도로(지방도) 6곳에 대한 개선 사업을 본격 추진하고 있다고 17일 밝혔다. 이번에 선정된 사고 다발지역은 ▷5·16 도로 중 서귀포시 남원읍 수악교 남측 ▷일주도로(지방도1132번) 중 제주시 한경면 고산3교차로 ▷서귀포시 대정읍 상모1교차로 ▷서귀포시 성산읍 고성교차로 ▷서귀포시 남원읍 남원교차로 ▷평화로 중 서귀포시 대정읍 안성3교차로다. 이곳은 도와 제주경찰청·제주도자치경찰단·도로교통공단과 합동 조사로 파악된 교통사고 다발지역이다. 특히 도로사정에 익숙하지 못한 관광객 렌터카 사고가 자주 발생하는 곳이기도 하다. 도는 6개 구간에 대해 무인 교통단속장비를 설치하고, 교통신호등과 도로안전 시설물을 보강한다. 총 18억원이 투입돼 오는 10월 마무리된다. 한편 도는 최근 내리막길 대형 화물차의 연쇄 추돌로 62명(사망 3명·중상 5명·경상 54명)의 사상자를 낸 제주대학교 사거리 교통사고와 관련해 대대적인 도로 개선 사업을 추진하고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 휠체어로 접근가능한 관광지 길 안내 추진 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 IT 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 IT &gt; 제주도, 휠체어로 접근가능한 관광지 길 안내 추진 파이낸셜뉴스입력 2021.05.14 16:41수정 2021.05.14 16:42 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 과학기술정보통신부 공모 ‘사회현안 해결 지능 정보화 사업’ 최종 선정스마트폰 기반 관광지 경로·장애물 정보 제공…SK텔레콤과 협업 추진 휠체어 사용자를 위한 실외 길 안내 서비스 [제주=좌승훈 기자] 제주도는 과학기술정보통신부가 공모한 2021년 사회 현안 해결 지능정보화 사업에 ‘휠체어 사용자를 위한 실외 길 안내 서비스(Jeju Wheel Navi)’가 최종 선정됐다고 14일 밝혔다. 도는 이에 따라 국비 9억1000만원을 지원받아 연내 정보통신기술을 토대로 이 사업을 마무리할 계획이다. ■ ‘Jeju Wheel Navi’ 연내 구현 도는 이를 통해 장애인을 포함해 교통약자의 이동권 보장을 위해 실외에서 목적지까지 안전하게 이동할 수 있는 스마트폰 기반의 길 안내(관광지 내 경로·장애물 정보)를 제공해 여행 장벽을 낮추게 된다. 앞서 도는 2018년부터 디지털기술을 활용한 ‘주민 주도형 문제해결’ 지원사업을 통해 현재 140개소에 대한 무장애여행 데이터 구축과 개방, 무장애 관광안내 책자 발간 등 이동약자를 위한 지속적인 정보사업을 추진해오고 있다. 교통약자 이동 편의와 안전을 위한 사회공헌사업 업무 협약식 휠체어 사용자를 위한 실외 길 안내 서비스 사업은 첨단 정보통신기술을 기반으로 도로에 대한 정보 수집과 가공이 가능하고, 이동약자가 실외를 이동할 때 쉽고 편리하게 길 안내를 받을 수 있도록 SK텔레콤㈜ 등과 협업으로 추진된다. 사용자의 활용성과 서비스 접근성 확보를 위해 ‘SK T맵’에도 서비스를 구축해 30개 관광지를 대상으로 경로 안내와 도로 폭·높이 등의 데이터로 내비게이션 기능을 제공하는 한편, 관광지 로드 뷰와 대중교통(저상버스) 실시간 정보 연계 지원도 추진한다. 도는 이를 위해 SK텔레콤㈜와 업무협약(MOU)을 체결했다. 버스 대기시간이 길어질 경우 정류장 인근의 SK텔레콤 매장(10여개)을 교통약자쉼터로 제공하는 사회공헌 공동 프로그램도 진행한다. 윤형석 도 미래전략국장은 “그동안 장애인들이 관광지 접근과 이동에 많은 어려움을 겪어 왔다”면서 “ICT 첨단기술을 활용해 장애인들이 안전하고 편리하게 여행 서비스를 제공받게 될 것”이라고 말했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도의회, 지속가능한 제주관광산업 활성화 방안 모색 간담회 &lt; 여행/레저 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-11 14:55 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 제주도의회, 지속가능한 제주관광산업 활성화 방안 모색 간담회 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 여행/레저 제주도의회, 지속가능한 제주관광산업 활성화 방안 모색 간담회 기자명 정기환 기자 입력 2021.05.21 16:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 5월21일 오전11시, 도의회 대회의실 개최 사진= 제주특별자치도의회 문화관광체육위원회 오영희의원(국민의힘, 비례)[디스커버리뉴스=정기환 기자] 제주특별자치도의회 문화관광체육위원회 오영희의원(국민의힘, 비례)은 5월 21일 오전 11시 제주특별자치도의회 의원회관 1층 대회의실에서 ‘지속가능한 제주관광산업 활성화 방안 모색 간담회’를 개최하였다. 이날 간담회는 오영희의원 주최로 제주특별자치도 관광정책과 김승배 과장, 제주특별자치도 경제정책과 하상우 과장, 제주특별자치도 방역대응과 황순실 과장, 제주특별자치도관광협회 부동석 회장 외 부회장단 및 분과위원장 등이 참석하여 침체된 관광산업의 상생방안에 대한 의견을 나눴다. 오영희의원은 “지난 4월 제주관광협회를 방문하여 업계의 건의 내용을 전달받았으며, 침체된 제주관광산업의 활성화 방안을 마련하는데 주안점을 두는게 오늘 간담회의 주요 취지이다.”라고 하였으며, 건의된 주요 내용은 ‘패키지·단체 관광객 대상 방역지침 기준 완화’, ‘호텔세미나 행사 참가자 식사 가능토록 기준 완화’, ‘지자체 재난지원금 매출액 15억 까지 사업체 지급대상 확대’, ‘관광업계 현장 종사자 우선 백신접종 요청’등이다. 오영희 의원은 “코로나19로 항공·여행업, 숙박·호텔업, 전세버스업, 관광지업, 기념품업, 외식업 등 주요 업종들의 어려움이 가중되고 있으나, 한편으로는 국내여행 시장을 재편하는 기회다.”이점은 “코로나 이전에 찾아보기 어려웠던 국내여행 패키지와 호텔 상품의 등장 그리고 IT기반의 OTA(온라인여행사)들의 성장은 향후 포스트 코로나시대 내국인 뿐 아니라 외국인 관광객 유치 경쟁에서도 긍정적인 영향을 가져올 것으로 기대한다”고 밝혔다. 정기환 기자 jeong9200@gmail.com 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주자치경찰단, 제주도내 주요 관광지 특별방역순찰 강화 최종편집 2022년 10월 11일 14시 52분 제보 문의 회원가입 로그인 홈 정치 경제 사회 세계 문화 Books 전국 스페셜 협동조합 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 홈 정치 경제 사회 세계 문화 Books 전국 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 스페셜 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 협동조합 제주자치경찰단, 제주도내 주요 관광지 특별방역순찰 강화 정기후원 제주자치경찰단, 제주도내 주요 관광지 특별방역순찰 강화 현창민 기자(=제주) | 기사입력 2021.05.11. 23:36:17 페이스북 트위터 카카오스토리 밴드 URL복사 제주자치경찰단(단장 고창경)은 11일 제주도내 주요 관광지에 대한 관광지 특별방역순찰을 강화할 방침이라고 밝혔다. ▲제주자치경찰단(단장 고창경)은 제주도내 주요 관광지에 대한 관광지 특별방역순찰을 강화한다.ⓒ제주자치경찰단 제주도는 최근 일평균 3만 5000여 명의 관광객이 방문하는 등 관광객 수가 코로나19 이전 수준을 회복하며 코로나19 확산 위험에 대한 도민 불안이 증가하고 있다. 이번 특별방역순찰은 도민과 관광객이 다수 운집하는 도내 주요관광지 27개소를 대상으로 많이 출입하는 오후 시간대 특별순찰이 이뤄진다. 중점 점검사항은 마스크 착용 여부 5인 이상 집합금지 등 거리두기 준수여부 등이다. 또한 사려니숲길 등 차량 진입이 곤란한 지역에 대해서는 자치경찰기마대를 활용해 방역순찰을 추진할 예정이다. 그간 추진해 온 관광지 여자화장실 불법촬영기기 점검활동도 진행한다. 이를 위해 기존 제주시 30개소에서 서귀포시 30개소를 추가해 총 60개소에 대한 점검활동이 이뤄진다. 한편 지난 4월 19일부터 점검한 이후 현재까지 주요관광지 여성화장실 25개소에 대해 불법 촬영점검을 실시한 바 있다. 자치경찰단은 “제주를 찾는 관광객이 증가함에 따라 도민들의 코로나 유입에 대한 불안감을 해소할 수 있도록 주요 관광지 순찰활동을 강화해 나가겠다”고 밝혔다. 이 기사의 구독료를 내고 싶습니다. 3,000 5,000 10,000 30,000 50,000 +1,000 원 추가 +10,000 원 추가 -1,000 원 추가 -10,000 원 추가 매번 결제가 번거롭다면 CMS 정기후원하기 10,000 원 결제하기 일부 인터넷 환경에서는 결제가 원활히 진행되지 않을 수 있습니다. 343601-04-082252 [예금주 프레시안협동조합(후원금)]으로 계좌이체도 가능합니다. 기사 후원에 참여해 주셔서 감사합니다. 후원기사 제주자치경찰단, 제주도내 주요 관광지 특별방역순찰 강화 익명으로 후원하기 이름 핸드폰번호 이메일 @ 직접입력 naver.com hanmail.net nate.com korea.com gmail.com 금액 결제방법 휴대폰소액결제 신용카드 계좌이체 ※입력하신 개인정보는 후원 관련 문의시 식별정보 이외의 목적으로 활용되지 않습니다. ※익명으로 후원하시면 프레시안은 개인정보를 수집하지 않으나, 향후 결제를 취소할 때 처리가 지연될 수 있습니다. 계좌이체는 신청 할 수 없습니다. 취소 확인 현창민 기자 pressianjeju@gmail.com 제주취재본부 현창민 기자입니다. 최근글보기 NAVER 에서 현창민 기자 를 구독·응원해주세요 프레시안에 제보하기 프레시안에 CMS 정기후원하기 전체댓글 0 등록 최신순 조합소개 기사제보 저작권 정책 이메일 무단수집거부 개인정보취급방침 청소년보호방침 RSS 프레시안협동조합 | 사업자번호 101-81-69524 | 대표 박인규 제호: 프레시안 | 신문사업·인터넷신문사업 등록번호 서울아00083 | 창간 2001.9.24 | 등록 2005.10.12 | 발행인·편집인 박인규 | 청소년보호책임자 김우정 (04043) 서울시 마포구 서교동 395-73 BK빌딩 101호(양화로 10길 49 BK빌딩 101호) | 02-722-8494 | FAX 02-6008-8400 Copyrightⓒ Pressian Coop. All rights reserved.</t>
+  </si>
+  <si>
+    <t>관광객 몰리는 제주도, ‘알바’자리 가장 많이 늘어 - munhwa.com 모바일웹 | 지면보기 PDF | 2022.10.11 화요일 전체기사ㆍ정치ㆍ경제ㆍ사회ㆍ문화ㆍ국제ㆍ인물ㆍ기획/시리즈 로그인ㆍ회원가입ㆍID/PW 찾기 전체기사ㆍ사설ㆍ시론ㆍ시평ㆍ포럼ㆍ뉴스와 시각ㆍ오후여담ㆍ문화논단ㆍ기고ㆍ살며 생각하며ㆍ여론마당 로그인ㆍ회원가입ㆍID/PW 찾기 전체기사ㆍ정치ㆍ경제ㆍ사회ㆍ문화ㆍ스포츠ㆍ국제ㆍ인물ㆍ삽화ㆍ그래픽/표 로그인ㆍ회원가입ㆍID/PW 찾기 전체기사ㆍ스포츠일반ㆍ야구ㆍ축구ㆍ농구ㆍ골프ㆍ배구 로그인ㆍ회원가입ㆍID/PW 찾기 전체기사ㆍ영화ㆍ가요ㆍ방송/연예 로그인ㆍ회원가입ㆍID/PW 찾기 전체리스트 로그인ㆍ회원가입ㆍID/PW 찾기 전체 이름순ㆍ정치부ㆍ경제부ㆍ산업부ㆍ사회부ㆍ전국부ㆍ국제부ㆍ문화부ㆍ체육부ㆍ사진부ㆍ디지털콘텐츠부 로그인ㆍ회원가입ㆍID/PW 찾기 별별 구독경제ㆍ세상의 모든 디저트ㆍ마음상담소ㆍ이 남자의 클래식ㆍ도시풍경ㆍ결혼했습니다ㆍ그립습니다 로그인ㆍ회원가입ㆍID/PW 찾기 전광판 Hot Click 경제일반 [경제] 게재 일자 : 2021년 05월 07일(金) 관광객 몰리는 제주도, ‘알바’자리 가장 많이 늘어 &amp;nbsp 1~4월 포털 공고 수 80% ↑ 시급 가장높은 지역, 세종시 국내에서 올 들어 아르바이트 일자리가 가장 많이 증가한 지역은 제주도인 것으로 나타났다. 아르바이트 포털 알바몬은 올해 1~4월 기간 자사 포털에 등록된 아르바이트 공고 수는 201만 건으로 지난해 같은 기간 대비 42% 늘었다고 7일 밝혔다. 알바몬 관계자는 “소비시장이 조금씩 회복되는 추세로 전국적으로 아르바이트 공고 수가 증가했다”고 설명했다. 지역별로는 제주도 공고 수가 80.0% 증가해 가장 크게 늘었다. 신종 코로나바이러스 감염증(코로나19)으로 인해 해외여행길이 막히면서 여행 수요가 집중되자 관련 일자리도 덩달아 늘었기 때문으로 풀이된다. 제주도관광협회에 따르면 지난 4월 한 달 동안 제주를 찾은 관광객 수는 106만9888명으로 지난해 같은 달(54만2158명) 대비 두 배 가까이 늘었다. 전국에서 아르바이트 일자리가 가장 많은 곳은 경기도(35.6%), 서울(30.9%)이 차지했다. 올해 4월까지 등록된 전체 아르바이트 공고 중 60% 이상이 수도권에 집중됐다. 전국에서 알바 평균 시급이 가장 높은 지역은 세종시였다. 세종시는 지난 2019년 조사에서도 전국 광역시·도 중 가장 높은 시급을 기록했다. 세종시에 등록된 아르바이트 공고는 평균 9673원의 시급을 책정한 것으로 집계됐다. 신도시 특성상 각종 서비스업의 아르바이트 수요가 높기 때문으로 보인다. 세종시 다음으로는 경북도(9524원), 서울시(9489원), 경기도(9472원), 제주도(9382원) 등이 아르바이트 시급 상위권에 올랐다. 반면 광주광역시(9096원), 전북도(9098원), 전남도(9118원), 대구시(9216원) 등은 타 지역에 비해 알바 시급이 다소 낮은 편에 속했다. 올해 최저임금은 시급 기준 8720원이다. 이희권 기자 leeheken@munhwa.com 이희권 기자 / 산업부 이희권 기자의 다른 기사보기 [ 많이 본 기사 ] ▶ ‘전략 핵탄두’ 미국 3508개 vs 러 2565개… 러,우크라 핵타.. ▶ 택시 떠나는 이유 있네...“택시 연매출 3천만원...배달사업.. ▶ [영상] 우크라 공포에 떨게 한 ‘러 미사일’ 실물 포착 ▶ [단독] 서울·경기교육청, ‘김어준 뉴스공장’에 광고 12억 .. ▶ ‘친문 검사’ 징계 주도할 대검 감찰부장에 “檢 출신 몰려” [HOT! 포토] ‘한복 알리미’ 김연아의 아름다운 한복 자태 [HOT! 포토] 비·골프선수 ‘불륜 루머’에 김태희 반응은… [HOT! 포토] 골프 선수 박결, 유명인 상대로 퍼진 루머에 “.. [HOT! 포토] 코요태, “24년 만의 쇼케이스, 인기 연예인이 .. [HOT! 포토] 르세라핌, 17일 새 앨범 발매 → Mnet서 컴백.. [HOT! 포토] 레드벨벳 슬기, 오늘 첫 솔로 ‘28 Reasons’ 공.. [HOT! 포토] 고우리, 5세 연상 사업가와 결혼…“난 복 많은.. Copyrightⓒmunhwa.com '대한민국 오후를 여는 유일석간 문화일보' 무단 전재 및 재배포 금지 [ 구독신청:02-3701-5555 / 모바일 웹 : m.munhwa.com ] Please activate JavaScript for write a comment in LiveRe. ‘전략 핵탄두’ 미국 3508개 vs 러 2.. 택시 떠나는 이유 있네...“택시 연매출.. [영상] 우크라 공포에 떨게 한 ‘러 미.. [단독] 서울·경기교육청, ‘김어준 뉴스.. ‘친문 검사’ 징계 주도할 대검 감찰.. [속보] 尹, 전술핵 재배치 “입장표명.. 신화 신혜성, 도난차량서 음주측정 거.. ‘풀소유’ 논란에 활동 중단한 혜민스님.. 정진석 “욱일기 단 일본군이 진주한다.. 미 서부 명문 스탠퍼드대학서 대낮 성.. [속보] 尹, 전술핵 재배치 “입장표.. 정진석 “욱일기 단 일본군이 진주한다.. [단독]새만금 풍력 7200배 수익올린.. “외국계 증권사, 네이버 매도의견 낸.. 나경원 "국힘 지지층 7주 연속 1등.. ‘정치감사’ 반발 전현희에 조정훈 “위.. ‘학업성취도 평가’ 5년만에 부활한다 윤석열 “핵위협 앞에 어떤 우려가 정.. 북 “미사일 상공폭발 성공”… 핵 파괴.. "일본 자위대를 군대로 인정?" 이재명.. 택시 떠나는 이유 있네...“택시 연매.. 카카오뱅크·페이 주가 올해 70% 하락 삼성전자 입주 ‘키이우 건물’ 러 미사.. 경제위기는 오고 있는 것이 아니라 이.. ‘세계최대’ 삼바 4공장 이르면 내일.. 이재용, 현장행보 ‘일단락’…이건희 2.. 부동산 침체에도 우뚝 선 ‘强小주택’ 새출발기금 채무조정 신청 1조원 몰려.. ‘타다 사태’ 되풀이?…중개사협發 ‘직.. 금리 오르는데…전세대출 변동금리 .. 선우은숙, 4세 연하 아나운서 유영.. 선우은숙, 유영재 아나운서와 혼인신.. 신혜성, 도난차량으로 음주운전 인정.. 이젠 싸늘히 식어버린 부부… 죽음 앞.. 블랙핑크 유튜브 96%는 해외서 시.. 엄지원 "‘작은 아씨들’ 한 부분 될 수.. "부산국제영화제 햇병아리" 아이유입.. ‘작은 아씨들’, 해피엔딩으로 종영…동.. 요즘 K-팝 가사 둘 중 하나…‘창작 세.. "재미있다" 입소문...'인생은 아름다.. [단독]새만금 풍력 7200배 수익올.. 신혜성, 도난차량으로 음주운전 인정.. 경찰, 지난 주말 이준석 소환조사… .. 미 서부 명문 스탠퍼드대학서 대낮 성.. 박수홍 부친이 불붙인 ‘친족상도례’ 논.. ● 딸과의 대화 ● 비굴한 변명 ● 부부의 변심 ● 모범시민 ● 8을 반으로 나누면 ● 오늘의 운세 ● 라운드 후 건배사 ● 다채로운 상 2 ● 다채로운 상 ● 골퍼의 기도 회사소개 | 광고안내 | 사업안내 | 이용안내 | 구독안내 | 독자참여 | 회원서비스 | 고충처리 | 개인정보취급방침 | 청소년보호정책(책임자:한형민) | Site Map 제호 : 문화일보 | 주소 : 서울시 중구 새문안로 22 | 등록번호 : 서울특별시 아01697 | 등록일자 : 2011.7.15 | 회장 : 이병규 | 발행·편집인 : 김병직 | 발행연월일 : 1991.11.1Copyright ⓒ 문화일보. All Rights Reserved. ☎ 02) 3701-5114</t>
+  </si>
+  <si>
+    <t>제주도, 관광지·교통·숙박업·여행업·음식업 대상 우수업체 공모 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 관광지·교통·숙박업·여행업·음식업 대상 우수업체 공모 등록 2021.05.06 09:53:35 작게 크게 제주 마크.[제주=뉴시스] 강정만 기자 = 제주특별자치도는 오는 7일부터 26일까지 올해 상반기 우수관광사업체를 공모한다. 신청 분야는 관광지·교통·숙박업·여행업·음식업 등 5개 분야로, 우수관광사업체로 지정돼 2년이 된 사업체는 신청을 통해 심사 후 재지정을 받을 수 있다. 신청은 제주도에 사업장 소재지(주소)를 둔 사업체 중 영업신고(리모델링) 후 1년 이상 경과한 사업체면 가능하다. 도는 신청서 접수 후 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거쳐 업체를 지정할 계획이다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 김해서부문화센터, '와야G 율하 가든파티' 개최 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 지어소프트, 8회차 CB 전환가액 하향 조정 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 권익현 군수, '세계로 웅비하는 부안 대도식 비약' 최선 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 금감원, 금융사 직원에 '프리패스 출입증' 발급 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 지어소프트, 8회차 CB 전환가액 하향 조정 금감원, 금융사 직원에 '프리패스 출입증' 발급 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>오메가엑스 제주특별자치도관광협회 제주관광 명예 홍보대사 위촉제주도 전 세계에 알릴 것 | 한국경제TV 닫기 와우넷 와우파 한경 KVINA 로그아웃 마이페이지 로그인 고객의견 고객센터 열기 뉴스 SITE MAP 검색하기 검색 최신뉴스 증권 경제 부동산 부동산 뉴스 부동산 컨설팅 산업·IT 가상화폐 국제 취업 취업일반 취·창업뉴스 직업의세계 스타트업CEO 많이 본 뉴스 한국경제TV 와우넷 와우파 회원가입 한경구독 지역별채널 편성표 온에어 HOT 이복현 원장 “공매도, 국민 눈높이 맞춰 제도 보완” 정부, 김장철·연말에 182억 상당 농축수산물 할인 쿠폰 배포 아이폰14 사전예약 시작... 베트남 웹사이트 접속 마비 [코참데일리] 이복현 금감원장 "은행권 이자장사 지적, 비판적으로 볼 여지 있어" [포토] 유인나, '예쁘다~예뻐~' [포토] 김혜준-정해인, '다정한 손인사~' (27th BIFF) [온에어] 성공투자 오후증시 1부 [굿모닝 한경글로벌마켓] 간만의 연이틀 큰폭 상승... 배경은? - 당신이 잠든 사이 LIVE 코스피 2,187.83 (45.01 2.02%) 코스닥 669.34 (29.15 4.17%) 버튼 가상화폐 시세 관련기사 보기 정보제공 : 빗썸 닫기 TV 증권 주식상담 경제 기업·CEO 생활경제 특집 전체 프로그램 LIVE 한국경제TV 굿모닝 한경 글로벌마켓 1부 굿모닝 한경 글로벌마켓 2부 오늘장 뭐사지? 코리아마켓 [#내여주] 경주마 (경제주식마무리) 뉴스플러스 매수자들 프리뷰 뉴욕 경제전쟁 꾼 (금요일) 뉴스 최신뉴스 증권 경제 부동산 산업·IT 가상화폐 국제 취업 많이 본 뉴스 칼럼·연재 출근전 꼭 글로벌 브리핑 글로벌 시황&amp;이슈 GO WEST 증시프리즘 용와대에선 글로벌마켓 A/S 국제경제읽기 글로벌 구루에게 듣는다 슬기로운 금융생활 권영훈의 집중탐구 증권 국내증시 해외증시 특징주 매매신호 인기검색종목 연예·스포츠·여행 연예·스타 스포츠 국내여행 해외여행 HOME 뉴스 최신뉴스 ​ 오메가엑스, 제주특별자치도관광협회 제주관광 명예 홍보대사 위촉…“제주도 전 세계에 알릴 것” 핀핀하기 페이스북 페이스북 트위터 트위터 카카오스토리 카카오스토리 블로그 블로그 링크 복사 링크 복사 페이스북 노출 0 입력 2021-05-10 18:20 목록으로 댓글달기 댓글 인쇄하기 인쇄 글자 크게 글자 작게 오메가엑스, 제주특별자치도관광협회 제주관광 명예 홍보대사 위촉…“제주도 전 세계에 알릴 것” SITE MAP [와우넷 오늘장전략] 나스닥 27개월래 최저..일본 무비자 관광 허용-와우넷 오늘장전략 보이그룹 오메가엑스(OMEGA X)가 제주관광 명예 홍보대사로 활동한다. 10일 소속사 스파이어엔터테인먼트는 “오메가엑스(재한, 휘찬, 세빈, 한겸, 태동, XEN, 제현, KEVIN, 정훈, 혁, 예찬)가 제주특별자치도관광협회 명예 홍보대사에 위촉됐다”고 밝혔다. 제주특별자치도관광협회에 따르면 오메가엑스는 이날 오전 제주관광협회 회의실에서 제주도관광협회 제주관광 명예 홍보대사 위촉장을 전달받았다. 부동석 회장은 “제주특별자치도관광협회 제주관광 명예 홍보대사로 위촉된 것을 축하드린다”며 “앞으로 제주도의 브랜드 가치를 높이는데 꾸준히 힘써 달라”고 당부했다. 오메가엑스는 향후 2년간 제주도의 위상을 높이는 다양한 홍보 활동을 이어나갈 예정이다. 이에 오메가엑스는 “유네스코 자연경관분야 3관왕을 달성한 아름다운 섬 제주도를 전 세계에 알리는데 부끄럽지 않도록 열심히 활동해서 좋은 노래로 보답하겠다”고 위촉 소감을 밝혔다. 한편, 오메가엑스는 올 상반기 데뷔를 앞둔 11인조 신인 보이그룹이다. 그리스 알파벳의 마지막 글자인 오메가(Ω)는 새로운 시작과 꿈을, ‘X’는 무한한 사랑과 희망 등을 상징하며 팬들과의 첫 만남부터 꿈을 이루는 마지막 순간까지 다양한 가치를 함께 실현하겠다는 뜻을 담았다. 제주도관광협회 제주관광 명예 홍보대사로 위촉되며 데뷔 전부터 뜻 깊은 행보를 이어가고 있는 오메가엑스에 국내외 팬들의 관심이 집중되고 있다. 오메가엑스 제주특별자치도관광협회 오메가엑스 명예 홍보대사 와우넷 오늘장전략 한국경제TV 디지털이슈팀 유병철 기자 onlinenews@wowtv.co.kr 핀핀하기 페이스북 페이스북 트위터 트위터 카카오스토리 카카오스토리 블로그 블로그 링크 복사 링크 복사 좋아요 00 싫어요 00 후속기사 원해요 00 목록으로 목록 인쇄하기 인쇄 관련뉴스 마이핀 코로나연준반도체러시아 tab area 뉴스 기자 방송 파트너 김대복대표 윤성김병전 신현식대표 상한가닥터스 와우캐시 와우넷에서 실제 현금과동일하게 사용되는 사이버머니 캐시충전 서비스 상품 파트너방송 증권·부동산 교육 월정액 서비스 파트너 방송 GOLD 한국경제 TV 실시간 방송 구매하기 이용안내 GOLD PLUS 골드서비스 + VOD 주식강좌 구매하기 이용안내 파트너 방송 파트너방송 + 녹화방송 + 회원전용게시판+SMS증권정보 + 골드플러스 서비스 구매하기 이용안내 고객센터 강연회·행사 더보기 7일간 등록된 일정이 없습니다. 이벤트 7일간 등록된 일정이 없습니다. 공지사항 더보기 [한국경제TV] [고지] 한국경제TV 이용약관 개정 안내 1:1문의하기 시민제보하기 open ​​ 뉴스 목록 보기 arrow 뉴스 최신뉴스 증권 경제 부동산 산업·IT 가상화폐 국제 취업 칼럼·연재 출근전 꼭 글로벌 브리핑 글로벌 시황&amp;이슈 GO WEST 증시프리즘 용와대에선 글로벌마켓 A/S 국제경제읽기 글로벌 구루에게 듣는다 슬기로운 금융생활 권영훈의 집중탐구 증권 국내증시 해외증시 특징주 매매신호 인기검색종목 연예·스포츠·여행 연예·스타 스포츠 국내여행 해외여행 많이 본 뉴스 RSS | 구독 TV 목록 보기 증권 K-스탁 라이브 굿모닝 한경 글로벌마켓 1,2부 [홈] 마켓인사이트 성공투자 오후증시 1-2부 [홈] HOT 정오의 머니머니 증시투데이 출발증시 투데이 한경 코리아마켓 HOT 한경 글로벌마켓 HOT 대박천국 1-3부 [홈] HOT 대박천국 1부 대박천국 2부 대박천국 3부 대박천국 선데이 1-3부 [홈] 대박천국 프리미엄 주식상담 국고처 프라이데이 1-2부 [홈] 국고처 프라임 국민주식고충처리반 1~5부 [홈] 경제 경제전쟁 꾼 시즌2 경주마 HOT 뉴스플러스 HOT 미네르바 클래스 HOT 쓰리고 아이돌 경제학교 생활경제 건강매거진 1-3부 [홈] 버추얼토크 가상자산 치아건강 닥터스 기업·CEO 기업가정신 콘서트 기업가정신을 말하다 혁신성장코리아 특집방송 바이오 1번지 보스턴에 가다 1-2부 [홈] 와우넷 스페셜 [홈, 19人] HOT 추석 이후 투자전략 1-4부 [홈] 전체 프로그램 고객 참여 기사정정삭제 | 의견 이벤트 이용약관 개인정보처리방침 기사배열기본방침 YouTube 서비스 약관 Google 개인정보처리방침 패밀리사이트 패밀리사이트 한국경제TV 와우넷 와우파 한경 KVINA 한경미디어그룹 한국경제신문 한국경제매거진 BOOK 한경아카데미 텐아시아 모바일앱 한국경제TV앱 주식창앱 와우넷앱 와우밴드앱 한경 KVINA앱 회사소개 상시채용 고객센터 광고안내(인터넷·TV) 제휴문의 사이트맵 고객센터 안내 1599-0700 월 ~ 금 08:00 ~ 23:00 일요일 12:30 ~ 22:30 토·공휴일 10:00 ~ 15:00 (주)한국경제티브이 대표이사 조주현 서울특별시 중구 청파로 463(중림동, 한국경제신문사) (우:04505) 사업자등록번호 : 107-81-70183 통신판매업신고번호 : 서울중구 2022-0572호 호스팅제공자 : (주)한국경제티브이 기사배열 책임자 : 유은길 Copyright&amp;copy 한국경제TV. All Rights Reserved. 인쇄하기 닫기 인쇄하기 인쇄 2021-05-10 18:20 오메가엑스, 제주특별자치도관광협회 제주관광 명예 홍보대사 위촉…“제주도 전 세계에 알릴 것” 보이그룹 오메가엑스(OMEGA X)가 제주관광 명예 홍보대사로 활동한다. 10일 소속사 스파이어엔터테인먼트는 “오메가엑스(재한, 휘찬, 세빈, 한겸, 태동, XEN, 제현, KEVIN, 정훈, 혁, 예찬)가 제주특별자치도관광협회 명예 홍보대사에 위촉됐다”고 밝혔다. 제주특별자치도관광협회에 따르면 오메가엑스는 이날 오전 제주관광협회 회의실에서 제주도관광협회 제주관광 명예 홍보대사 위촉장을 전달받았다. 부동석 회장은 “제주특별자치도관광협회 제주관광 명예 홍보대사로 위촉된 것을 축하드린다”며 “앞으로 제주도의 브랜드 가치를 높이는데 꾸준히 힘써 달라”고 당부했다. 오메가엑스는 향후 2년간 제주도의 위상을 높이는 다양한 홍보 활동을 이어나갈 예정이다. 이에 오메가엑스는 “유네스코 자연경관분야 3관왕을 달성한 아름다운 섬 제주도를 전 세계에 알리는데 부끄럽지 않도록 열심히 활동해서 좋은 노래로 보답하겠다”고 위촉 소감을 밝혔다. 한편, 오메가엑스는 올 상반기 데뷔를 앞둔 11인조 신인 보이그룹이다. 그리스 알파벳의 마지막 글자인 오메가(Ω)는 새로운 시작과 꿈을, ‘X’는 무한한 사랑과 희망 등을 상징하며 팬들과의 첫 만남부터 꿈을 이루는 마지막 순간까지 다양한 가치를 함께 실현하겠다는 뜻을 담았다. 제주도관광협회 제주관광 명예 홍보대사로 위촉되며 데뷔 전부터 뜻 깊은 행보를 이어가고 있는 오메가엑스에 국내외 팬들의 관심이 집중되고 있다. 한국경제TV 디지털이슈팀 유병철 기자 onlinenews@wowtv.co.kr</t>
+  </si>
+  <si>
+    <t>제주도, 방역 관광 청정 이미지 제고에 나선다 최종편집 2022년 10월 11일 14시 52분 제보 문의 회원가입 로그인 홈 정치 경제 사회 세계 문화 Books 전국 스페셜 협동조합 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 홈 정치 경제 사회 세계 문화 Books 전국 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 스페셜 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 협동조합 제주도, 방역 관광 청정 이미지 제고에 나선다 정기후원 제주도, 방역 관광 청정 이미지 제고에 나선다 현창민 기자(=제주) | 기사입력 2021.05.06. 14:42:41 페이스북 트위터 카카오스토리 밴드 URL복사 제주도가 제주를 찾는 방문객들에게 안전하고 친절한 청정 제주관광 이미지 제고에 나선다. ▲제주도가 제주를 찾는 방문객들에게 안전하고 친절한 청정 제주관광 이미지 제고에 나선다.ⓒ프레시안(현창민) 제주도는 5월 가정의 달을 맞아 위드코로나 시대 방역·관광 공존을 위한 안전+친절 제주관광이미지 확산 캠페인을 집중 추진한다고 6일 밝혔다. 제주지역은 최근 봄 성수기와 5월 가정의 달 연휴를 맞아 관광객이 급증세를 보이고 있으나 불친절 골프장과 렌터카 등에서 관광요금 인상에 대한 관광 민원이 지속적으로 발생하고 있는 실정이다. 이에 따라 도는 지난 4월 26일 제주관광 이미지 제고를 위한 관계기관과 긴급회의를 개최하고 사업체를 포함해 유관기관 및 관련부서 주관으로 안전+친절 제주관광이미지 확산 추진계획을 마련했다. 주요 중점 추진사항으로는 코로나19 방역계도와 병행해 친절 및 공정가격 등 제주관광 이미지 제고를 위한 활동을 전개한다. 코로나19 방역관련으로는 △5월 가정의 달 방역‧관광 공존의 관광수용태세 계도 △도내 관광사업체 방역물품 지속 지원 △공항 내 코로나19 방역캠페인 전개 등을 지속 추진한다. 이와 함께 관광지 친절 및 공정가격 등 제주관광 이미지 제고를 위해 △건전관광 질서 확립을 위한 불공정행위 합동단속 △도지사 핫라인-관광불편신고센터 운영 △기관 및 부서별 공정가격 받기 자정운동을 전개한다. 앞서 제주도는 부서별 공정가격 받기 자정운동을 위해 도 교통정책과(렌터카 운영상황 계도)와 경제정책과(지방물가 안정화 관리 강화 및 도 소비생활센터 피해사례 상담) 도 관광협회(렌터카, 골프장 등 분과별 자정 노력 캠페인 전개) 관광공사(비짓제주 리뷰 이벤트 '내맘속의 착한 업체'진행)등 관계기관 별로 건전 관광 이미지 제고를 위한 자정 운동을 펼치고 있다. 김재웅 도 관광국장은 “제주도를 중심으로 유관기관 및 도내 관광사업체의 자발적이고 적극적인 방역준수와 친절 및 공정가격 책정을 위한 다양한 캠페인을 전개하고 있다"고 밝혔다. 이 기사의 구독료를 내고 싶습니다. 3,000 5,000 10,000 30,000 50,000 +1,000 원 추가 +10,000 원 추가 -1,000 원 추가 -10,000 원 추가 매번 결제가 번거롭다면 CMS 정기후원하기 10,000 원 결제하기 일부 인터넷 환경에서는 결제가 원활히 진행되지 않을 수 있습니다. 343601-04-082252 [예금주 프레시안협동조합(후원금)]으로 계좌이체도 가능합니다. 기사 후원에 참여해 주셔서 감사합니다. 후원기사 제주도, 방역 관광 청정 이미지 제고에 나선다 익명으로 후원하기 이름 핸드폰번호 이메일 @ 직접입력 naver.com hanmail.net nate.com korea.com gmail.com 금액 결제방법 휴대폰소액결제 신용카드 계좌이체 ※입력하신 개인정보는 후원 관련 문의시 식별정보 이외의 목적으로 활용되지 않습니다. ※익명으로 후원하시면 프레시안은 개인정보를 수집하지 않으나, 향후 결제를 취소할 때 처리가 지연될 수 있습니다. 계좌이체는 신청 할 수 없습니다. 취소 확인 현창민 기자 pressianjeju@gmail.com 제주취재본부 현창민 기자입니다. 최근글보기 NAVER 에서 현창민 기자 를 구독·응원해주세요 프레시안에 제보하기 프레시안에 CMS 정기후원하기 전체댓글 0 등록 최신순 조합소개 기사제보 저작권 정책 이메일 무단수집거부 개인정보취급방침 청소년보호방침 RSS 프레시안협동조합 | 사업자번호 101-81-69524 | 대표 박인규 제호: 프레시안 | 신문사업·인터넷신문사업 등록번호 서울아00083 | 창간 2001.9.24 | 등록 2005.10.12 | 발행인·편집인 박인규 | 청소년보호책임자 김우정 (04043) 서울시 마포구 서교동 395-73 BK빌딩 101호(양화로 10길 49 BK빌딩 101호) | 02-722-8494 | FAX 02-6008-8400 Copyrightⓒ Pressian Coop. All rights reserved.</t>
+  </si>
+  <si>
+    <t>롯데관광개발, 제주도 관광 수요 폭발에 '방긋' &lt; 증권 &lt; 금융/증권 &lt; 기사본문 - 이코노믹리뷰 상단영역 관리자로그인 전체메뉴 버튼 산업 금융/증권 IT/스타트업 CEO GO-ESG Life &amp; 로그인 로그인 회원가입 기사검색 검색 2022-10-11 14:50 (화) 실시간 그랜드 조선 부산, ‘레이디스 딜라이트풀 모먼트’ 출시 랩지노믹스, 래리호건 미국 메릴랜드 주지사와 협력 제일약품, 프랑스 ‘베올리아’와 친환경 스마트팩토리 부문 맞손 플라즈맵, 공모가 7000원 확정…이달 12~13일 청약 한미약품-한미정밀화학, 인적자원개발 우수기관 연속 인증 BAT “글로 완전 전환시 연초 대비 장기적 위해저감 효과” 신규 확진 1만5476명…사망 10명, 석 달 만에 최저 이복현 “금융권 횡령·이상외환거래 엄중 조치” 현대엔지니어링, 브랜드 타운 ‘명륜 현대 3차 힐’ 주택 홍보관 오픈 나홀로 웃는 조선업…3분기 실적 ‘호조’ 본문영역 이전 기사보기 다음 기사보기 롯데관광개발, 제주도 관광 수요 폭발에 '방긋' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 롯데관광개발, 제주도 관광 수요 폭발에 '방긋' 4월 제주도 관광 102만명…이달 60만명 제주 호텔 객실 판매량 '폭발' "대차잔고 증가는 주가에 부담" 기자명 노성인 기자 입력 2021.05.18 20:59 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주 드림타워 복합리조트 전경. 출처=롯데관광개발 [이코노믹리뷰=노성인 기자] 롯데관광개발(032350)이 제주도 관광 수요 폭발에 힘입어 반등하고 있다. 다음 달 제주 드림타워 내 외국인 대상 카지노 개장도 앞두고 있어 추가 상승 모멘텀 또한 충분하다는 분석이다. 18일 한국거래소에 따르면 롯데관광개발은 전 거래일 대비 650원(3.35%) 상승한 2만50원에 거래를 마쳤다. 연초(1만5,150원) 대비 32.34% 상승했다. 같은 기간 코스피 상승률(7.76%)을 큰 폭 상회하는 수준이다. 코로나19에 해외여행이 막히자 제주도로 관광객이 몰린 것이 주 원인이다. 게다가 올해 하반기 코로나19 백신 접종이 확산되면 여행수요가 되살아날 것이라는 기대감이 주가에 강하게 작용하고 있는 것으로 분석된다. 4월 제주도 관광객 102만명…전년比 108%↑ 제주도관광협회에 따르면 4월 제주도 누적 관광객은 102만8,539명으로 작년 4월(49만4,383명)과 비교해 108% 늘었다. 코로나 사태 이전인 2019년 4월(115만8,666명)과 비슷한 수준으로 회복했다. 이달에도 60만명 이상이 몰린 것으로 집계됐다. 제주도 관광이 급증하면서 롯데관광개발의 제주 드림타워가 개장 초부터 빠르게 인지도를 확대하고 있다는 평가다. 작년 12월 롯데관광개발은 제주 드림타워 복합리조트를 공식 개장했다. 제주 드림타워는 169m, 38층 규모의 제주 최고층 건물이다. 해당 건물 내에는 1,600개 스위트 객실을 보유한 그랜드 하얏트 호텔이 있다. 지난 9일 현대홈쇼핑에서 진행한 제주 드림타워 내 그랜드 하얏트 제주 호텔 객실 패키지 방송에서 70분 만에 1만24실이 판매되는 등 큰 인기를 끌고 있다. 제주 드림타워는 지난 2월 이후 85일 동안 5차례 홈쇼핑을 통해서만 3만8,600실의 판매고를 기록한 것으로 알려졌다. 이에 5월 예약 기준 객실점유율은 90%를 넘어선 것으로 파악됐다. 이기훈 하나금융투자 연구원은 “7월 성수기에 이미 타워1의 객실 750실 이상이 예약되면서 객실 850실을 갖춘 타워2까지 개장을 시작한다. 3분기 예상 객실 판매는 최소 9만실 이상이다”며 “호텔만으로 분기 BEP(손익분기점) 내외까지 가능한 수준이다. 타워2 개장 시에도 인건비와 같은 고정비 증가는 크지 않을 것이다”고 설명했다. 롯데관광개발은 올해 1분기 매출액과 영업손익은 각각 122억원과 378억원의 손실을 기록했지만,  올 6월 제주 드림타워 내 국내 거주하는 외국인을 대상으로 한 카지노 개장을 계기로 실적이 반등할 것으로 기대된다. 카지노 개장 시점에 맞춰 호텔 객실 시설까지 모두 가동될 것으로 보이는 가운데 식음료 등 부대시설의 매출도 호텔 객실과 비례해서 성장할 것으로 추정되기 때문이다. 카지노 매출이 연 4,000억원만 돼도 이자비용을 600억원이라고 가정했을 때 순이익 1,000억원이 가능할 것이라는 전망이 나온다. 롯데관광개발 대차잔고 추이. 출처=한국예탁결제원 롯데관광개발 대차잔고 확대 중…"투자주의" 다만 일각에서는 이달 초 공매도 재개 이후 롯데관광개발 대차잔고가 확대되고 있어 투자에 주의가 필요하다는 지적이 나온다. 롯데관광개발의 대차잔고는 이달 초 182만1,681건에서 지난 17일 257만2,638건으로 증가했다. 대차잔고는 투자자들이 주식을 빌린 뒤 갚지 않은 물량을 말한다. 이 잔고를 청산하기 위해서는 숏커버링을 해야 한다. 보유한 물량으로 되갚거나 매도했다면 판 수량만큼 다시 사야 한다. 때문에 대차잔고가 늘어난다는 것은 공매도를 위해 빌린 주식 규모가 늘어난다는 것으로 풀이된다. 즉 롯데관광개발이 향후 하락할 것으로 보는 투자자도 많다는 의미이다. SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 키워드 #이코노믹리뷰 #노성인 #하나금융 #백신 #코로나 #코로나19 #코로나19 백신 #한국거래소 #현대 #홈쇼핑 #롯데 #현대홈쇼핑 #대상 #쇼핑 노성인 기자 nosi3230@econovill.com 다른기사 보기 구독신청하러 가기 경제를 리뷰, 미래를 본다 © 이코노믹리뷰 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 금융/증권 인기뉴스 1 [주간증시전망] 여전히 높은 전방 불확실성…“정책·이슈 모멘텀 주목” 2 [ER 빚 고민 상담소] 청년 빚, 맞춤형 탕감 제도 따로 있다 3 이복현 “금융권 횡령·이상외환거래 엄중 조치” 4 케이뱅크, 아파트 신규 구입자금 대출 출시 5 글로벌 ETF, 지난주 위험선호 심리 회복에 주식 ETF로 자금 유입 ER포토 [ER포토]조니워커 아시아 최대 영화축제 함께한다! [ER포토]조니워커, 부산국제영화제 공식 후원 Investing.com 한국어 가 운영하는 기술적 분석 요약 위젯 하단영역 하단메뉴 회사소개 채용정보 기사제보 광고문의 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 UPDATED. 2022-10-11 14:50 (화) 매체정보 서울특별시 종로구 삼일대로 469 3F, 이코노믹리뷰 (경운동,서원빌딩) 대표전화 : 02-6321-3000 팩스 : 02-6321-3001 기사문의 : 02-6321-3042 광고문의 : 02-6321-3012 등록번호 : 서울 아 03560 발행인·편집인 : 주태영 광고마케팅국 : 고동훈 청소년보호책임자 : 김상곤 이코노믹리뷰의 모든 콘텐츠는 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 이코노믹리뷰. All rights reserved. 위로 전체메뉴 전체기사 산업 일반 전자 자동차 항공/조선/철강 에너지/화학/정유 중소기업 금융/증권 일반 1금융 2금융 증권 IT/스타트업 일반 IT/스타트업 통신 게임 블록체인 건설/부동산 일반 건설 부동산 생활경제 일반 제약/바이오 일반 종합 일반 ER포토 인사/부고 오피니언 일반 편집국에서 기자수첩 전문가칼럼 라이프 일반 서평 운세 타임피스 OTT픽 플레이G 헬스케어 IT여담 커버스토리 전체메뉴닫기</t>
   </si>
   <si>
     <t>제주도, "방역과 관광 두 마리 토끼 잡는다" - 전국 &gt; 기사 - 더팩트 HOME &gt; NEWS &gt; 전국 &gt; 제주 제주도, "방역과 관광 두 마리 토끼 잡는다" 입력: 2021.05.07 13:37 / 수정: 2021.05.07 13:37 제주도가 코로나19 어려운 지역경제에 활력을 불어넣기 위해 관광객들이 체감할 수 있는 안전하고 친절한 청정 제주관광의 이미지를 확산시켜 나간다. / 제주도 제공5월 가정의 달 대비 '안전+친절 제주관광이미지 확산 캠페인' 전개[더팩트｜제주=문형필 기자] 제주도가 신종 코로나바이러스 감염증(코로나19) 사태로 어려운 지역경제에 활력을 불어넣기 위해 관광객들이 체감할 수 있는 안전하고 친절한 청정 제주관광의 이미지를 확산시켜 나간다.제주는 5월 가정의 달을 맞아 위드코로나 시대 방역·관광 공존을 위한 '안전+친절 제주관광이미지 확산 캠페인'을 집중 추진한다고 7일 밝혔다.최근 봄 성수기와 5월 가정의 달 연휴에 맞춰 제주를 찾는 관광객이 증가하고 있으나 불친절, 골프장과 렌터카 등에서의 요금 인상 등에 대한 관광 민원도 지속 발생하고 있다.이에 따라 도는 지난달 26일 제주관광 이미지 제고를 위한 관계기관 및 부서와의 긴급회의를 개최하고, 사업체를 포함해 유관기관 및 관련부서 주관의 '안전+친절 제주관광이미지 확산 추진계획'을 마련했다.주요 추진사항으로는 코로나19 방역계도와 병행해 친절 및 공정가격 등 제주관광 이미지 제고를 위한 활동을 전개한다.코로나19 방역관련으로는 △5월 가정의 달 방역‧관광 공존의 관광수용태세 계도 △도내 관광사업체 방역물품 지속 지원 △공항 내 코로나19 방역캠페인 전개 등을 지속 추진한다.이와 함께 관광지 친절 및 공정가격 등 제주관광 이미지 제고를 위해 △건전관광 질서 확립을 위한 불공정행위 합동단속 △도지사 핫라인-관광불편신고센터 운영 △기관 및 부서별 공정가격 받기 자정운동 등을 전개한다.기관 및 부서에는 교통정책과(렌터카 운영상황 계도), 경제정책과(지방물가 안정화 관리 강화 및 도 소비생활센터 피해사례 상담), 도 관광협회(렌터카, 골프장 등 분과별 자정 노력 캠페인 전개), 관광공사(비짓제주 리뷰 이벤트 '내맘속의 착한 업체' 진행) 등이 있다.김재웅 도 관광국장은 "제주도를 중심으로 유관기관 및 도내 관광사업체의 자발적이고 적극적인 방역준수와 친절 및 공정가격 책정을 위한 다양한 캠페인 전개를 통해 청정 관광제주의 이미지 제고를 통한 제주 경기 조기 회복에도 기여할 수 있도록 최선을 다해 나갈 것"이라고 밝혔다.hyejun@tf.co.kr 발로 뛰는 &lt;더팩트&gt;는 24시간 여러분의 제보를 기다립니다. ▶카카오톡: '더팩트제보' 검색 ▶이메일: jebo@tf.co.kr ▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write - 네이버 메인 더팩트 구독하고 [특종보자▶] - 그곳이 알고싶냐? [영상보기▶] AD 인기기사 실시간 TOP10 정치 경제 사회 연예</t>
   </si>
   <si>
-    <t>관광객·확진자 모두 급증…제주도, 도내 등교 중단 | 채널A 뉴스 대 메뉴로 바로가기 콘텐츠로 바로가기 푸터로 바로가기 뉴스 TV 열린A 온에어 편성표 이벤트 쇼핑몰 로그인| 회원가입| 고객센터 검색어를 입력하세요 최근 검색어 먹거리X파일 이만갑 채널A 편성표 김진 최근 검색어 삭제 뉴스 홈 뉴스A 코너 뉴스 다시보기 +분야별 보기 뉴스제보 최신뉴스 정치 경제 국제 사회 문화 스포츠 연예 날씨 스포츠 플러스 홈 &gt; 사회 관광객·확진자 모두 급증…제주도, 도내 등교 중단 [채널A] 2021-05-12 19:31 뉴스A 제주도가 초비상입니다. 해외여행길이 막히면서 제주도 방문객이 월 100만 명을 넘어섰는데요. 덩달아 확진자도 늘고 있습니다. 이달 들어 백 명 넘는 확진자가 나오면서, 등교 수업이 중단됐는데요. 다가오는 휴가철이 더 걱정입니다. 홍진우 기자입니다.[리포트]공항이 여행객들로 북적입니다. 지난달 월간 기준 제주도 방문객은 100만 명을 넘었고, 이달에도 하루 3만 명 이상이 찾으면서 코로나 이전 수준을 거의 회복했습니다. [김건국/ 대전 대덕구] "와보니까 각 지방에서 와서 그런지 관광객들이 많이 왔네요. 내가 타고 온 비행기는 만석이 됐었어요." 오가는 발걸음이 늘자 제주지역 코로나19 확진자 수도 가파르게 늘고 있습니다. 이달 확진 판정을 받은 제주 주민은 115명, 올해 가장 많은 확진자가 나왔던 1월 기록을 이미 넘겼습니다. 진단검사도 하루 2천 건을 넘기며 역대 최대 수치를 기록하고 있습니다. [코로나19 검사 대기자] "줄 서다가 코로나 걸리는 거 아니냐고 검사받으러 왔다가 사람 너무 많이 몰리니까. (검사) 안 받을 수는 없고." 특히 대학교와 PC방 등에서 주민 간 접촉으로 인한 연쇄 감염이 발생하면서 우려는 더 큽니다. 다른 지역 확진자들과 접촉한 주민이 지역사회에 N차 감염을 일으키는 양상이 본격화됐기 때문입니다. 결국 제주도는 도내 학교 등교를 중단하는 극약 처방을 내렸습니다. [임태봉/ 제주도 코로나방역대응추진단장] "제주 지역은 오는 18일까지 도내 모든 고등학교를 비롯해 동 지역 유·초·중·특수학교에 대해서 원격 수업을 진행할 방침입니다." 확산세가 가라앉지 않을 경우 현재 1.5단계인 거리두기 단계를 격상하는 방안도 검토하고 있습니다. 채널A 뉴스 홍진우입니다. jinu0322@donga.com 영상취재 : 김한익 영상편집 : 김문영 ▶Daum에서 [채널A 뉴스] 구독하기 (모바일) ▶Naver에서 [채널A 뉴스] 구독하기 오늘의 뉴스 또 스쿨존 사고에 모녀 참변…“3일 전 눈 수술로 흐릿” ‘조건 만남’ 신고했다고…또래 여중생에 집단 폭행당해 조금씩 확인되는 손 씨 친구 행적…‘새벽 2시 사진’ 확보 [단독]IOC에 낸 서울-평양 올림픽 제안서…“28조 들여 北 개발” [단독]“북한, 테러 없는 가장 안전한 나라” 강조 4층서 “살려주세요”…사다리차가 살렸다 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 재생목록 15/26 연속재생 5월 12일 오늘의 주요뉴스 [단독]사상 초유 재판받는 중앙지검장…이성윤에 직권남용.... “재판으로 대검 반부패부 명예회복” 이성윤 버티기 선택 “이성윤 스스로 거취 결단” 첫 목소리…민주당 내부 고.... 후보자 임명 두고 당청 엇갈려…與 초선들 “최소 1명 .... 국민의힘 “장관 후보자 셋 다 부적격…최소 2명 낙마해.... 종부세 손질 나선 송영길 “부자 세금 때려봐야 정서적 .... 인사 두고 당청 ‘미묘한 갈등’…민주당이 달라졌다? 노래주점 업주 체포…화장실서 실종 남성 DNA 발견 또 스쿨존 사고에 모녀 참변…“3일 전 눈 수술로 흐릿.... ‘조건 만남’ 신고했다고…또래 여중생에 집단 폭행당해 조금씩 확인되는 손 씨 친구 행적…‘새벽 2시 사진’ .... 한강공원 전면 금주냐 CCTV 추가냐…찬반 ‘팽팽’ [단독]입양한 막내 빼고 외출…이웃들 “늘 아기 빼고 .... 관광객·확진자 모두 급증…제주도, 도내 등교 중단 제주 렌터카 이용료도 껑충…“항공권보다 2배 비싸” 추미애가 없앤 ‘여의도 저승사자’…박범계가 부활 검토 [여랑야랑]이재명·이낙연·정세균이 ‘남 탓’을 한다? .... 미사일 90% 막은 이스라엘군 ‘아이언돔’…피의 보복 .... 美 송유관 해킹으로 유가 6년 만에 최고…줄 서다 주먹.... ‘귀한 몸’ 민물장어, 40% 몸값 낮춘 이유는? 넉 달 새 화재 50건…‘위니아 딤채’ 구형 김치냉장고.... [팩트맨]면허 없이 못 탄다…전동 킥보드 Q&amp;A 과학이 푼 ‘이래서 페널티킥 실축’…뇌파 분석해 보니 [날씨]내일 더 덥다…내륙 낮 기온 30도 육박 [뉴스A 클로징]장관 ‘딜’하는 국회 1번째 비주얼 2번째 비주얼 3번째 비주얼 채널A 디지털 온리 [화나요 뉴스]“칭찬도 병인양하여”…‘청해부대·임대차 3법 논란’ [경제 톡톡톡]“유통기한 지나도 먹자”…소비기한 도입 추진 [씬의 한수]복제인간의 감성 드라마 ‘서복’ 오늘의 날씨 내륙 낮까지 가끔 비…낮 최고기온 18∼26도 뉴스A 뉴스A LIVE 뉴스TOP10 채널A 뉴스특보 뉴스제보 종영프로그램 금쪽같은 내새끼 나는 몸신이다 도시어부3 슈퍼 DNA 피는 못 속여 신랑수업 애로부부 오은영의 금쪽 상담소 이제 만나러 갑니다 천하제일장사 펜트하우스 2021 CJ대한통운 슈퍼레이스 도시어부4 배우는 캠핑짱 종영프로그램 고두심이 좋아서 지구인 더 하우스 김진의 돌직구쇼 닥터 지.바.고 산전수전 여고동창생 서민갑부 채널A 시청자마당 토요 랭킹쇼 행복한 아침 황금나침반 100세 프로젝트 성공열전K 채널A 건강 스페셜 헬스데이터 A+ 종영프로그램 쇼윈도: 여왕의 집 거짓말의 거짓말 유별나! 문셰프 터치 평일 오후 세시의 연인 열두밤 가시리잇고 마천대루 시청자 위원회 이벤트 광고제휴판매 홍보센터 고충처리인 정정보도신청 개인소장DVD 판매 협찬고지 지역별 채널번호 경기 구리/하남/여주 Ch. 17 02)2020-3100 공지사항 + 채널A 소개(KOR | ENG) 채널A홍보 광고 및 제휴 영상자료판매 큐톤안내 이용약관 개인정보취급방침 법적고지 고객센터 기획안 공모 (주)채널에이 대표이사: 김재호 주소: 서울특별시 종로구 청계천로 1 (03187) 대표전화: (02)2020-3114 시청자상담실: (02)2020-3100 사업자등록번호: 101-86-62787 부가통신사업신고: 022357호 통신판매업신고: 제2012-서울종로-0195호 Copyright (c) Since 2015, CHANNEL A All rights reserved. 채널A 관련사이트 채널A 관련사이트 동아미디어그룹 동아닷컴 스포츠동아 동아사이언스 동아비지니스리뷰 채널A 미디어텍 채널A 플러스 이동 관계사 관계사 동아일보 동아닷컴 동아프린테크 동아사이언스 동아PDS 디유넷 스포츠동아 동아E&amp;D 동아이지에듀 이동 법적고지 채널A에서 제공하는 콘텐츠에 대하여 채널A의 각종 서비스를 사용하여 인터넷에 올려진 정보를 얻고자 하실 때에는 다음과 같은 점에 유의하시기 바랍니다. 채널A가 제공하는 모든 제반 서비스를 이용하여 연결(링크)된 사이트에 수록되어 있는 정보 중에는 회원의 개인적인 판단에 따라 불쾌감 또는 피해를 주는 내용이 있을 수도 있습니다. 채널A의 각 사이트 및 동호회 서비스 등에서 채널A 사이트 외부로의 링크 결과 열람하시는 사이트에서 현행 국내법상 불법이거나, 사회의 일반통념, 질서 및 미풍양속 등에 어긋나는 내용을 사전에 차단 하는 것과 관련하여 채널A는 어떠한 책임도 지지 않습니다. 채널A는 네트워크에 링크된 모든 사이트에 수록된 자료의 정확성이나 상표법, 저작권법 등의 관계 법령의 준수 여부에 대하여 어떤 책임도 부인합니다. 회원님들께서는 채널A와 네트워크로 연결되어 있는 웹사이트 또는 제3자에 의하여 채널A네트워크 상에서 작동되거나 제공되는 모든 정보, 상품들은 채널A의 통제 권한 밖에서 제작, 게시 및 작동되었음을 유념하시기 바랍니다. 회원들이 복제 인용 등의 방법으로 채널A 사이트 안에 다른 사이트의 콘텐츠를 제공하였을 경우, 콘텐츠의 내용은 제3자에 의하여 개발되었고 회원에 의해 게시되었므로 채널A의 책임 여부와는 무관함을 명심하시기 바랍니다. 물론 채널A가 스스로 제공하는 콘텐츠에 관하여는 위에 열거된 법령과 혹시 누락된 법령일지라도 관련 법령을 준수하기 위하여 최선을 다하고 있습니다. 채널A의 서비스에 관하여 일반적 혹은 관계 법령의 준수에 관한 조언을 하고자 하실 때에는 언제나 홈페이지에 게시된 담당자에게 연락주시기 바랍니다. 채널A는 여러분의 의견을 적극 수용하도록 최선을 다하겠습니다. %@include&gt; 플로팅플레이어</t>
-  </si>
-  <si>
-    <t>'제주도 관광객 급증' 가득찬 김포공항 주차장 주메뉴 바로가기 본문 바로가기 2022.10.04 (화) 흐림동두천 16.3℃ 흐림강릉 18.3℃ 흐림서울 17.1℃ 비대전 19.1℃ 비대구 23.1℃ 비울산 23.6℃ 비광주 19.3℃ 흐림부산 24.7℃ 흐림고창 18.1℃ 구름많음제주 23.9℃ 구름많음강화 16.7℃ 흐림보은 19.0℃ 흐림금산 19.9℃ 흐림강진군 20.1℃ 흐림경주시 23.7℃ 흐림거제 23.6℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 검색창 열기 PDF 지면신문 보기 온라인구독 열기 닫기 메뉴 뉴스 정치 사회 경제 문화 체육 인천 지역 생활 사진 국제 기획 사설/기고 사람들 인터뷰 인사 사고 부고 결혼 독자공간 알림 우리동네 제보/투고 보도자료 사회공헌 보도평가위 불편신고 구독신청 제휴문의 광고문의 닫기 뉴스 정치 사회 경제 문화 체육 인천 지역 생활 사진 국제 기획 사설/기고 사람들 인터뷰 인사 사고 부고 결혼 독자공간 알림 우리동네 제보/투고 보도자료 사회공헌 보도평가위 불편신고 구독신청 제휴문의 광고문의 뉴스 사진 '제주도 관광객 급증' 가득찬 김포공항 주차장 황준선 qnpfr1995@naver.com 등록 2021.05.09 14:27:40 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 어린이날 징검다리 연휴 마지막날인 9일 서울시 김포국제공항 국내선 주차장에 차량이 가득 차 있다.  [ 경기신문 = 황준선 기자 ] 황준선 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 저작권자 © 경기신문 무단전재 및 재배포 금지 많이 본 기사 더보기 1 [단독] 국민 쫓는 ‘윤석열차’…현 정권 풍자 그림 부천만화축제서 전시 2 신생팀 고양 캐롯, 프로농구 컵대회 4강 진출 확정 3 국립암센터, 경기도민·고양시민 이용하는 ‘지역병원’ 전락하나 4 지난달 경기지역 전세 거래량 '급락'...매매 거래 '역대 최저' 5 김포시 교통권 확보…인천지하철 2호선 감정·걸포북변·시네폴리스역 신설 검토 6 “기본으로 돌아가 시민과 소통하는 게 제일 중요하죠” 7 인천 예술인 협업의 ‘시작’…2022 도화가압장, 3개월 여정 마무리 에디터 추천 기사 정치 열흘 앞 경기도 국감…올해도 이재명 의혹 검증 재연 예견 정치 5일 중 이틀 ‘파행’…민생 추경 사라지고 갈등만 남은 예결위 문화 [단독] 국민 쫓는 ‘윤석열차’…현 정권 풍자 그림 부천만화축제서 전시 지역 용인 이영미술관 아파트 사업 시행사, 반대 주민 상대 '줄소송' 실시간 기사 더보기 SKT, 발달장애 인식 개선 위한 ‘라이크 유(Like You)’ 캠페인 펼친다 카카오메이커스-카카오브레인, ‘세계 동물의 날’ 기부 프로젝트 진행 선인장 다육식물의 설렘! 제18회 선인장페스티벌 열려 분당 차병원 암센터, ‘티쎈트릭-아바스틴’ 병용요법 치료효과 확인 MZ세대, 코로나19 이후 중소기업 일자리 선택 조건 1위 ‘워라밸’ 인하대병원, 2025년까지 권역응급의료센터 재지정 LH 경기, 과천·의왕·화성 임대주택 1657가구 공급 [부고] 한림대학교성심병원 오세경 고객지원실 팀장 부친상 [본사인사] ◇ 승진 ▲반현 광고부 차장 대우 命 광고부 차장 한국도자재단, ‘한국 현대 도예 작품’ 공개 구입 COMMUNITY 알림 제보 보도자료 사회공헌 지면평가위 윤리강령 구독신청 불편신고 뉴스메일링 COVER STORY 146호 2022-09-13 구독신청 지난호보기 독자투고 기사제보 146호 145호 144호 143호 142호 141호 140호 139호 138호 137호 136호 135호 134호 133호 132호 131호 130호 129호 128호 127호 126호 125호 124호 123호 122호 121호 120호 119호 118호 117호 116호 115호 114호 113호 112호 111호 110호 109호 108호 107호 106호 105호 104호 103호 102호 101호 100호 99호 98호 97호 96호 95호 94호 93호 92호 91호 90호 89호 88호 87호 86호 85호 84호 83호 82호 81호 80호 79호 78호 77호 76호 75호 74호 73호 72호 71호 70호 69호 68호 67호 66호 65호 64호 63호 62호 61호 60호 59호 58호 57호 56호 55호 54호 53호 52호 51호 50호 49호 48호 47호 46호 45호 44호 43호 42호 41호 40호 39호 38호 37호 36호 35호 34호 33호 32호 31호 30호 29호 28호 27호 26호 25호 24호 23호 22호 21호 20호 19호 18호 17호 16호 15호 14호 13호 12호 11호 10호 9호 8호 7호 6호 5호 4호 3호 2호 1호 신문사소개 고충처리인 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 배덕훈) 전자우편 무단수집거부 제보 불편신고 경기도 용인시 기흥구 흥덕4로 15번길 3-11 (영덕동 1111-2) 경기신문사 | 대표전화 : 031) 268-8114 | 팩스 : 031) 268-8393 | 청소년보호책임자 : 배덕훈 법인명 : ㈜경기신문사 | 제호 : 경기신문 | 등록번호 : 경기 가 00006 | 등록일 : 2002-04-06 | 발행일 : 2002-04-06 | 발행인·편집인 : 김대훈 | ISSN 2635-9790 경기신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2020 경기신문. All rights reserved. mail to webmaster@kgnews.co.kr UPDATE: 2022년 10월 04일 11시 17분 최상단으로 기사검색 전체 전체 제목 부제목 기자이름 본문 검색어를 입력해주세요 검색하기 검색창 닫기</t>
+    <t>관광객·확진자 모두 급증…제주도, 도내 등교 중단 | 채널A 뉴스 대 메뉴로 바로가기 콘텐츠로 바로가기 푸터로 바로가기 뉴스 TV 열린A 온에어 편성표 이벤트 쇼핑몰 로그인| 회원가입| 고객센터 검색어를 입력하세요 최근 검색어 먹거리X파일 이만갑 채널A 편성표 김진 최근 검색어 삭제 뉴스 홈 뉴스A 코너 뉴스 다시보기 +분야별 보기 뉴스제보 최신뉴스 정치 경제 국제 사회 문화 스포츠 연예 날씨 스포츠 플러스 홈 &gt; 사회 관광객·확진자 모두 급증…제주도, 도내 등교 중단 [채널A] 2021-05-12 19:31 뉴스A 제주도가 초비상입니다. 해외여행길이 막히면서 제주도 방문객이 월 100만 명을 넘어섰는데요. 덩달아 확진자도 늘고 있습니다. 이달 들어 백 명 넘는 확진자가 나오면서, 등교 수업이 중단됐는데요. 다가오는 휴가철이 더 걱정입니다. 홍진우 기자입니다.[리포트]공항이 여행객들로 북적입니다. 지난달 월간 기준 제주도 방문객은 100만 명을 넘었고, 이달에도 하루 3만 명 이상이 찾으면서 코로나 이전 수준을 거의 회복했습니다. [김건국/ 대전 대덕구] "와보니까 각 지방에서 와서 그런지 관광객들이 많이 왔네요. 내가 타고 온 비행기는 만석이 됐었어요." 오가는 발걸음이 늘자 제주지역 코로나19 확진자 수도 가파르게 늘고 있습니다. 이달 확진 판정을 받은 제주 주민은 115명, 올해 가장 많은 확진자가 나왔던 1월 기록을 이미 넘겼습니다. 진단검사도 하루 2천 건을 넘기며 역대 최대 수치를 기록하고 있습니다. [코로나19 검사 대기자] "줄 서다가 코로나 걸리는 거 아니냐고 검사받으러 왔다가 사람 너무 많이 몰리니까. (검사) 안 받을 수는 없고." 특히 대학교와 PC방 등에서 주민 간 접촉으로 인한 연쇄 감염이 발생하면서 우려는 더 큽니다. 다른 지역 확진자들과 접촉한 주민이 지역사회에 N차 감염을 일으키는 양상이 본격화됐기 때문입니다. 결국 제주도는 도내 학교 등교를 중단하는 극약 처방을 내렸습니다. [임태봉/ 제주도 코로나방역대응추진단장] "제주 지역은 오는 18일까지 도내 모든 고등학교를 비롯해 동 지역 유·초·중·특수학교에 대해서 원격 수업을 진행할 방침입니다." 확산세가 가라앉지 않을 경우 현재 1.5단계인 거리두기 단계를 격상하는 방안도 검토하고 있습니다. 채널A 뉴스 홍진우입니다. jinu0322@donga.com 영상취재 : 김한익 영상편집 : 김문영 ▶Daum에서 [채널A 뉴스] 구독하기 (모바일) ▶Naver에서 [채널A 뉴스] 구독하기 오늘의 뉴스 또 스쿨존 사고에 모녀 참변…“3일 전 눈 수술로 흐릿” ‘조건 만남’ 신고했다고…또래 여중생에 집단 폭행당해 조금씩 확인되는 손 씨 친구 행적…‘새벽 2시 사진’ 확보 횟집서 22만 원 ‘먹튀족’…“얼굴 공개하겠다” 경고하자 北, 남한 비행장 찍어가며 핵무력 과시…김정은 참관 이재명, 한미일 연합훈련 재차 비판…거세진 친일 공세 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 재생목록 15/26 연속재생 5월 12일 오늘의 주요뉴스 [단독]사상 초유 재판받는 중앙지검장…이성윤에 직권남용.... “재판으로 대검 반부패부 명예회복” 이성윤 버티기 선택 “이성윤 스스로 거취 결단” 첫 목소리…민주당 내부 고.... 후보자 임명 두고 당청 엇갈려…與 초선들 “최소 1명 .... 국민의힘 “장관 후보자 셋 다 부적격…최소 2명 낙마해.... 종부세 손질 나선 송영길 “부자 세금 때려봐야 정서적 .... 인사 두고 당청 ‘미묘한 갈등’…민주당이 달라졌다? 노래주점 업주 체포…화장실서 실종 남성 DNA 발견 또 스쿨존 사고에 모녀 참변…“3일 전 눈 수술로 흐릿.... ‘조건 만남’ 신고했다고…또래 여중생에 집단 폭행당해 조금씩 확인되는 손 씨 친구 행적…‘새벽 2시 사진’ .... 한강공원 전면 금주냐 CCTV 추가냐…찬반 ‘팽팽’ [단독]입양한 막내 빼고 외출…이웃들 “늘 아기 빼고 .... 관광객·확진자 모두 급증…제주도, 도내 등교 중단 제주 렌터카 이용료도 껑충…“항공권보다 2배 비싸” 추미애가 없앤 ‘여의도 저승사자’…박범계가 부활 검토 [여랑야랑]이재명·이낙연·정세균이 ‘남 탓’을 한다? .... 미사일 90% 막은 이스라엘군 ‘아이언돔’…피의 보복 .... 美 송유관 해킹으로 유가 6년 만에 최고…줄 서다 주먹.... ‘귀한 몸’ 민물장어, 40% 몸값 낮춘 이유는? 넉 달 새 화재 50건…‘위니아 딤채’ 구형 김치냉장고.... [팩트맨]면허 없이 못 탄다…전동 킥보드 Q&amp;A 과학이 푼 ‘이래서 페널티킥 실축’…뇌파 분석해 보니 [날씨]내일 더 덥다…내륙 낮 기온 30도 육박 [뉴스A 클로징]장관 ‘딜’하는 국회 1번째 비주얼 2번째 비주얼 3번째 비주얼 채널A 디지털 온리 [화나요 뉴스]“칭찬도 병인양하여”…‘청해부대·임대차 3법 논란’ [경제 톡톡톡]“유통기한 지나도 먹자”…소비기한 도입 추진 [씬의 한수]복제인간의 감성 드라마 ‘서복’ 오늘의 날씨 [날씨]올가을 최저기온 기록한 아침…낮엔 10도 쑥↑ 뉴스A 뉴스A LIVE 뉴스TOP10 채널A 뉴스특보 뉴스제보 종영프로그램 금쪽같은 내새끼 나는 몸신이다 도시어부3 슈퍼 DNA 피는 못 속여 신랑수업 애로부부 오은영의 금쪽 상담소 이제 만나러 갑니다 천하제일장사 펜트하우스 2021 CJ대한통운 슈퍼레이스 도시어부4 배우는 캠핑짱 종영프로그램 고두심이 좋아서 지구인 더 하우스 김진의 돌직구쇼 닥터 지.바.고 산전수전 여고동창생 서민갑부 채널A 시청자마당 토요 랭킹쇼 행복한 아침 황금나침반 100세 프로젝트 성공열전K 채널A 건강 스페셜 헬스데이터 A+ 종영프로그램 쇼윈도: 여왕의 집 거짓말의 거짓말 유별나! 문셰프 터치 평일 오후 세시의 연인 열두밤 가시리잇고 마천대루 시청자 위원회 이벤트 광고제휴판매 홍보센터 고충처리인 정정보도신청 개인소장DVD 판매 협찬고지 지역별 채널번호 경기 구리/하남/여주 Ch. 17 02)2020-3100 공지사항 + 채널A 소개(KOR | ENG) 채널A홍보 광고 및 제휴 영상자료판매 큐톤안내 이용약관 개인정보취급방침 법적고지 고객센터 기획안 공모 (주)채널에이 대표이사: 김재호 주소: 서울특별시 종로구 청계천로 1 (03187) 대표전화: (02)2020-3114 시청자상담실: (02)2020-3100 사업자등록번호: 101-86-62787 부가통신사업신고: 022357호 통신판매업신고: 제2012-서울종로-0195호 Copyright (c) Since 2015, CHANNEL A All rights reserved. 채널A 관련사이트 채널A 관련사이트 동아미디어그룹 동아닷컴 스포츠동아 동아사이언스 동아비지니스리뷰 채널A 미디어텍 채널A 플러스 이동 관계사 관계사 동아일보 동아닷컴 동아프린테크 동아사이언스 동아PDS 디유넷 스포츠동아 동아E&amp;D 동아이지에듀 이동 법적고지 채널A에서 제공하는 콘텐츠에 대하여 채널A의 각종 서비스를 사용하여 인터넷에 올려진 정보를 얻고자 하실 때에는 다음과 같은 점에 유의하시기 바랍니다. 채널A가 제공하는 모든 제반 서비스를 이용하여 연결(링크)된 사이트에 수록되어 있는 정보 중에는 회원의 개인적인 판단에 따라 불쾌감 또는 피해를 주는 내용이 있을 수도 있습니다. 채널A의 각 사이트 및 동호회 서비스 등에서 채널A 사이트 외부로의 링크 결과 열람하시는 사이트에서 현행 국내법상 불법이거나, 사회의 일반통념, 질서 및 미풍양속 등에 어긋나는 내용을 사전에 차단 하는 것과 관련하여 채널A는 어떠한 책임도 지지 않습니다. 채널A는 네트워크에 링크된 모든 사이트에 수록된 자료의 정확성이나 상표법, 저작권법 등의 관계 법령의 준수 여부에 대하여 어떤 책임도 부인합니다. 회원님들께서는 채널A와 네트워크로 연결되어 있는 웹사이트 또는 제3자에 의하여 채널A네트워크 상에서 작동되거나 제공되는 모든 정보, 상품들은 채널A의 통제 권한 밖에서 제작, 게시 및 작동되었음을 유념하시기 바랍니다. 회원들이 복제 인용 등의 방법으로 채널A 사이트 안에 다른 사이트의 콘텐츠를 제공하였을 경우, 콘텐츠의 내용은 제3자에 의하여 개발되었고 회원에 의해 게시되었므로 채널A의 책임 여부와는 무관함을 명심하시기 바랍니다. 물론 채널A가 스스로 제공하는 콘텐츠에 관하여는 위에 열거된 법령과 혹시 누락된 법령일지라도 관련 법령을 준수하기 위하여 최선을 다하고 있습니다. 채널A의 서비스에 관하여 일반적 혹은 관계 법령의 준수에 관한 조언을 하고자 하실 때에는 언제나 홈페이지에 게시된 담당자에게 연락주시기 바랍니다. 채널A는 여러분의 의견을 적극 수용하도록 최선을 다하겠습니다. %@include&gt; 플로팅플레이어</t>
+  </si>
+  <si>
+    <t>'제주도 관광객 급증' 가득찬 김포공항 주차장 주메뉴 바로가기 본문 바로가기 2022.10.11 (화) 맑음동두천 14.1℃ 맑음강릉 20.4℃ 맑음서울 15.0℃ 맑음대전 16.4℃ 맑음대구 16.9℃ 맑음울산 17.1℃ 맑음광주 17.7℃ 맑음부산 20.0℃ 구름많음고창 16.8℃ 구름조금제주 19.7℃ 맑음강화 14.6℃ 맑음보은 14.4℃ 맑음금산 15.4℃ 구름조금강진군 18.5℃ 맑음경주시 17.4℃ 맑음거제 18.5℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 검색창 열기 PDF 지면신문 보기 온라인구독 열기 닫기 메뉴 뉴스 정치 사회 경제 문화 체육 인천 지역 생활 사진 국제 기획 사설/기고 사람들 인터뷰 인사 사고 부고 결혼 독자공간 알림 우리동네 제보/투고 보도자료 사회공헌 보도평가위 불편신고 구독신청 제휴문의 광고문의 닫기 뉴스 정치 사회 경제 문화 체육 인천 지역 생활 사진 국제 기획 사설/기고 사람들 인터뷰 인사 사고 부고 결혼 독자공간 알림 우리동네 제보/투고 보도자료 사회공헌 보도평가위 불편신고 구독신청 제휴문의 광고문의 뉴스 사진 '제주도 관광객 급증' 가득찬 김포공항 주차장 황준선 qnpfr1995@naver.com 등록 2021.05.09 14:27:40 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 어린이날 징검다리 연휴 마지막날인 9일 서울시 김포국제공항 국내선 주차장에 차량이 가득 차 있다.  [ 경기신문 = 황준선 기자 ] 황준선 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 저작권자 © 경기신문 무단전재 및 재배포 금지 많이 본 기사 더보기 1 "재정자립도 낮은데…" 인천시 1000만원 첫만남이용권 공약 기초단체 협의 '험로' 예상 2 ‘가스누출 추정’ 일가족 참사에 尹 “취약계층 세심한 대책” 지시 3 내일부터 ‘오미크론 대응’ 개량백신 접종 시작 4 오스테드, 인천 앞바다 해상풍력사업 속도…반대 목소리는 여전 5 kt 위즈 NC 다이노스 5-2 꺾고 리그 3위 유지 6 도성훈 2기 인천교육청 첫 '조직개편' 추진…내년 3월 1일 목표 7 [국감] ‘한 방’ 없는 尹 정부 첫 국정감사…고성·막말로 얼룩진 국회 에디터 추천 기사 문화 문화예술계 뿔났다…300여 단체 “정부는 ‘윤석열차’ 검열 사건 즉각 사죄하라” 정치 경기도 다회용기 사용 지원 사업 1년째…실효성은 의문 정치 ‘道 추경처리 불발’ 도당 장외전…국힘 “문제없다” vs 민주 “발목잡기” 정치 [국감] ‘한 방’ 없는 尹 정부 첫 국정감사…고성·막말로 얼룩진 국회 실시간 기사 더보기 "100년 만에 원래 모습 찾아"…홍사용의 '백조' 창간호 복원 구인·구직자 일자리 지원을 위한 '2022 하반기 1차 권역별 채용박람회' 개최 한국학중앙연구원, 일제강점기 이후 한국 환경·의료·기술발전 탐구한 'Korea Journal' 발간 양평군, 쉬자파크 유아숲체험원, 와글와글 가을 운동회 개최 포천시장애인가족지원센터-경기북부장애인권익옹호기관, 업무협약 진행 포천시 군내면 주민자치위원회, 마을 계획을 위한 지도자 워크숍 개최 광명시, 청소년이 제안하는 기후위기 대응 여주시, 하반기 주민등록 사실조사 실시 이천시, 특별교부세 26억 원 확보…당면 현안사업 탄력 고양특례시, 국토부 1기신도시 정비 로드맵 제시 환영 COMMUNITY 알림 제보 보도자료 사회공헌 지면평가위 윤리강령 구독신청 불편신고 뉴스메일링 COVER STORY 147호 2022-10-11 구독신청 지난호보기 독자투고 기사제보 147호 146호 145호 144호 143호 142호 141호 140호 139호 138호 137호 136호 135호 134호 133호 132호 131호 130호 129호 128호 127호 126호 125호 124호 123호 122호 121호 120호 119호 118호 117호 116호 115호 114호 113호 112호 111호 110호 109호 108호 107호 106호 105호 104호 103호 102호 101호 100호 99호 98호 97호 96호 95호 94호 93호 92호 91호 90호 89호 88호 87호 86호 85호 84호 83호 82호 81호 80호 79호 78호 77호 76호 75호 74호 73호 72호 71호 70호 69호 68호 67호 66호 65호 64호 63호 62호 61호 60호 59호 58호 57호 56호 55호 54호 53호 52호 51호 50호 49호 48호 47호 46호 45호 44호 43호 42호 41호 40호 39호 38호 37호 36호 35호 34호 33호 32호 31호 30호 29호 28호 27호 26호 25호 24호 23호 22호 21호 20호 19호 18호 17호 16호 15호 14호 13호 12호 11호 10호 9호 8호 7호 6호 5호 4호 3호 2호 1호 신문사소개 고충처리인 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 배덕훈) 전자우편 무단수집거부 제보 불편신고 경기도 용인시 기흥구 흥덕4로 15번길 3-11 (영덕동 1111-2) 경기신문사 | 대표전화 : 031) 268-8114 | 팩스 : 031) 268-8393 | 청소년보호책임자 : 배덕훈 법인명 : ㈜경기신문사 | 제호 : 경기신문 | 등록번호 : 경기 가 00006 | 등록일 : 2002-04-06 | 발행일 : 2002-04-06 | 발행인·편집인 : 김대훈 | ISSN 2635-9790 경기신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2020 경기신문. All rights reserved. mail to webmaster@kgnews.co.kr UPDATE: 2022년 10월 11일 14시 56분 최상단으로 기사검색 전체 전체 제목 부제목 기자이름 본문 검색어를 입력해주세요 검색하기 검색창 닫기</t>
   </si>
   <si>
     <t>제주도 관광객 '폭증'…코로나19 이전의 95.6% 수준 회복 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 관광객 '폭증'…코로나19 이전의 95.6% 수준 회복 파이낸셜뉴스입력 2021.05.03 01:01수정 2021.05.03 01:07 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 5월 첫 주말…관광지마다 상춘객·렌터카로 북적4월 여행객 100만명 돌파…방역당국, 바짝 긴장 코로나19 확산세가 전국적으로 이어지고 있는 25일 오후 제주시 한림읍 협재해수욕장을 찾은 관광객들이 푸른 바다를 감상하며 잠시 여유를 즐기고 있다. 2021.04.25. [뉴시스] [제주=좌승훈 기자] 코로나19로 억눌렸던 여행심리가 고개를 들면서 방역당국이 크게 긴장하고 있다. 코로나19 확산 우려에도 불구하고, 5월 첫 주말에 제주를 찾은 관광객은 코로나19 이전 수준까지 회복됐다. 2일 제주도관광협회(회장 부동석)에 따르면, 지난 4월30일과 1일(금·토요일) 이틀에 걸쳐 제주를 찾은 내국인 관광객 수는 총 8만5182명(4월30일 4만1239명·1일 4만3943명)으로 잠정 집계됐다. 제주도내 유명 관광지마다 여행객과 렌터카로 북적댔다. 이는 지난해 같은 기간(5월 1~2일, 금·토요일)의 5만5123명보다 무려 54.5%나 증가한 것이며, 코로나19 발병 이전인 2019년 수준까지 따라 잡았다. 이는 실제로 2019년 5월 첫 번째 주말(3~4일, 금·토요일)에 제주를 찾은 내국인 관광객 수(8만9129명)의 95.6% 수준이다. ■ 코로나19 잊은 상춘객…보복적 여행 수요도 한몫 앞서 지난 4월 한 달 동안 제주를 찾은 관광객 수는 106만9888명으로 잠정 집계됐다. 지난해 같은 기간의 54만2258명과 비교하면 2배 가까이 늘었다. 이 역시 코로나19 이전인 2019년 4월(115만8666명) 수준까지 근접한 수치다. 올 들어 월간 100만명 이상의 관광객이 방문한 것은 4월이 처음이다. 지난해 2월 21일 제주지역에서 첫 코로나19 확진자가 발생한 이후 100만명 이상 관광객 방문은 8월(113만3095명)과 10월(107만8243명), 11월(114만3700명), 그리고 올해 4월 등 모두 4차례다. 국내 코로나19 신규 확진자 수가 이틀 연속 700명대를 기록한 22일 오후 제주를 방문한 관광객들의 발길로 제주국제공항이 붐비고 있다. 2021.04.22. [뉴시스] 더욱이 제주여행 열기는 계속 진행형이다. 1년 넘게 해외여행을 못 간 사람들의 보복적 여행수요도 한몫 거들고 있다. 방역당국은 여행 성수기인 이달에도 이 같은 현상이 계속 이어질 것으로 보여 잔뜩 긴장한 모습이다. 실제로 지난 4월 한 달에만 도내에서 87명이 확진됐으며, 이는 3월보다 52.6％나 증가한 것으로 조사됐다. 이 가운데 71.2％에 해당하는 62명이 관광객이거나 타 지역 확진자와의 접촉으로 인한 감염 등 외부 요인에 의한 것으로 분석됐다. 백신접종이 시작됐지만, 이 역시 수급 불안이 가중되는 상황이다. 전국적인 화이자 백신 물량 부족 사태로 75세 이상 노인과 노인시설 입소자·종사자, 감염병 전담병원 의료진 대상의 제주지역 백신 접종 일정도 차질을 빚게 됐다. 이는 지난달 30일 정부가 백신의 ‘일시적 수급 불균형’을 이유로 각 지자체에 “5월에는 당분간 화이자 백신 1차 접종을 자제하고 2차 접종에 집중해 달라”고 요청한 데 따른 것이다. 화이자 백신은 3주 간격으로 1·2차 접종을 마쳐야 하기 때문에, 1차 접종자들은 이달 말부터 내달 중순까지 2차 접종을 마쳐야 한다. 도는 이에 따라 기존 예약된 1차 접종과 2차 접종에 주력한다고 밝혔다. 사실상 한 달 가까이 신규 접종이 중단되는 것이다. 도 방역당국은 현재 전국적으로 코로나19 확산세가 이어지고 있는 상황에서 일부 이탈만으로도 방역 효과가 떨어질 수 있는 만큼, 사회적 거리두기와 방역수칙을 준수해 달라고 당부했다. 한편 2일 오후 11시 기준 제주도내 코로나19 누적 확진자는 716명이다. 격리 중인 확진자는 36명, 자가격리자는 557명이다. jpen21@fnnews.com 좌승훈 기자 키워드#보복소비 #보복여행 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
   </si>
   <si>
-    <t>제주도, 가정의달 ‘안전+친절 관광 캠페인’ 전개 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:14 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 가정의달 ‘안전+친절 관광 캠페인’ 전개 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 가정의달 ‘안전+친절 관광 캠페인’ 전개 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.05.06 12:15 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 5월 가정의달을 맞아 코로나19 어려운 지역경제에 활력을 불어넣기 위해 ‘안전+친절 제주관광이미지 확산 캠페인’을 통해 관광객들이 체감할 수 있는 안전하고 친절한 청정 제주관광의 이미지를 확산시켜 나갈 계획이라고 6일 밝혔다. 이번 캠페인은 가정의 달을 맞아 위드코로나 시대 방역과 관광 공존을 위해 진해된다. 최근 봄 성수기와 5월 가정의 달 연휴에 맞춰 제주를 찾는 관광객이 증가하고 있으나 불친절, 골프장과 렌터카 등에서의 관광요금 인상 등에 대한 관광 민원도 지속 발생하고 있는 실정이다. 이에 따라 지난 4월 26일 제주관광이미지 제고를 위한 관계기관 및 부서와의 긴급회의를 개최하고, 사업체를 포함해 유관기관 및 관련부서 주관의 ‘안전+친절 제주관광이미지 확산 추진계획’을 마련했다. 주요 중점 추진사항으로는 코로나19 방역계도와 병행해 친절 및 공정가격 등 제주관광 이미지 제고를 위한 활동을 전개한다. 코로나19 방역관련으로는 △5월 가정의 달 방역‧관광 공존의 관광수용태세 계도 △도내 관광사업체 방역물품 지속 지원 △공항 내 코로나19 방역캠페인 전개 등을 지속 추진한다. 이와 함께 관광지 친절 및 공정가격 등 제주관광 이미지 제고를 위해 △건전관광 질서 확립을 위한 불공정행위 합동단속 △도지사 핫라인-관광불편신고센터 운영 △기관 및 부서별 공정가격 받기 자정운동을 전개한다. 김재웅 제주도 관광국장은 “제주도를 중심으로 유관기관 및 도내 관광사업체의 자발적이고 적극적인 방역준수와 친절 및 공정가격 책정을 위한 다양한 캠페인 전개를 통해 청정 관광제주의 이미지 제고를 통한 제주 경기 조기 회복에도 기여할 수 있도록 최선을 다해 나가겠다”고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>밀려드는 제주도 관광객… 4월에만 ‘100만명’ 훌쩍-국민일보 시사 시사 &gt; 전체기사 밀려드는 제주도 관광객… 4월에만 ‘100만명’ 훌쩍 입력 : 2021-05-02 05:37 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 기사 내용과 관련 없는 이미지. 연합뉴스제주도를 찾는 관광객이 지난 4월 100만 명을 훌쩍 넘겼다. 같은 달 제주도에서 발생한 코로나19 확진자 중 다른 지역 사람들이 70%나 됐다는 점에서 코로나 확산을 우려하는 목소리가 높아지고 있다.제주도관광협회는 4월 한 달간 제주를 찾은 관광객 숫자가 106만9888명으로 잠정 집계됐다고 1일 밝혔다. 지난해 같은 기간(54만2천258명)과 비교하면 2배 가까이 늘어난 수치다.코로나 사태가 1년 넘게 이어지며 방역 피로감이 누적되자 봄철 여행에 많이 나선 영향으로 풀이된다.제주도 현지에서는 관광객 증가로 코로나19 확산을 우려하는 목소리도 높아지고 있다.실제로 지난달 제주도에서 발생한 확진자 87명 가운데 62명이 수도권 등 다른 지역을 방문하거나, 다른 지역 확진자와 접촉 등 외부 요인에 의해 감염된 것으로 나타났다.이에 임태봉 제주코로나방역대응추진단장은 “전국적으로 코로나19 확산세가 이어지고 있고, 제주도 누적 확진자가 700명대를 넘었다”면서 “일부 이탈만으로도 방역 효과가 떨어질 수 있는 만큼 사회적 거리두기 및 방역수칙을 준수해 달라”고 말했다.또 “불가피하게 제주에 입도할 계획이 있는 분들은 입도 전 코로나19 음성 확인을 받고 방문해 주기 바란다”고 덧붙였다.김남명 인턴기자 GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 조응천 “마지막 타깃은 문 전 대통령이란 얘기 나와” 통일부 “남북연락사무소 업무개시 통화 안돼…원인파악중” ‘채널A 기자 명예훼손 혐의’ 최강욱 1심 무죄 조종수 김건희, 칼 든 검사들…고교생이 그린 ‘윤석열차’ 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 직원 폭행에 내연녀 심부름까지…회장님의 ‘갑질’ 의혹 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 尹, 감사원 文조사 논란에 “대통령 언급 부적절” “날 해치려고?” 칼부림… 마약 하면 누구든 ‘괴물’ 돌변 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 첫 연출에 상까지…전주단편영화제서 주목받은 박소현 감독 강다니엘·마마무·유주·펜타곤·퍼플키스, BOF 합류 불법 하도급 알선 등 공무원 무더기 검거 장애인·아동 성범죄자, 10명 중 4~5명꼴로 집행유예 “역시 봉화 송이”···봉화송이축제에 7만3000명 참가 尹, NSC 상임위 참석해 ‘北 도발 상응 조치’ 추진 지시 검찰, ‘성남FC 후원 의혹’ 농협·현대百 등 압수수색 조응천 “마지막 타깃은 문 전 대통령이란 얘기 나와” 열도 통과 北미사일에 기시다 “폭거”… 홋카이도 피난 지시 NHN, ‘고포류’ 주력인 게임사업 본사로 통합 새벽 무면허 운전 10대, 중앙선 침범사고로 사망 北미사일 4500㎞ 비행… 日방위상 “화성-12형 가능성” [속보] 통일부 “남북연락사무소 업무개시 통화 안돼…원인파악중” 인천경제청, 실내 자율주행 로봇 시즌1 리빙랩 완료 아르헨티나 대표 공격수 곤살로 이과인, 전격 은퇴</t>
-  </si>
-  <si>
-    <t>오메가엑스, 제주관광 명예 홍보대사 발탁…“제주도 전 세계에 알릴 것”-비즈엔터 콘텐츠 바로가기 검색 바로가기 주메뉴 바로가기 주요 기사 바로가기 비즈 엔터 스페셜 레저·스포츠 포토·영상 종합 통합검색 검색 검색 비즈엔터 &gt; 엔터 오메가엑스, 제주관광 명예 홍보대사 발탁…“제주도 전 세계에 알릴 것” 기사입력 : 2021-05-10 13:34 페이스북 트위터 카카오스토리 댓글 인쇄 글씨작게 글씨크게 [비즈엔터 맹선미 기자]▲오메가엑스(사진 = 스파이어엔터테인먼트 제공)보이그룹 오메가엑스(OMEGA X)가 제주관광 명예 홍보대사로 활동한다.소속사 스파이어엔터테인먼트는 10일 “오메가엑스가 제주특별자치도관광협회 명예 홍보대사에 위촉됐다”고 밝혔다.오메가엑스는 이날 오전 제주관광협회 회의실에서 제주도관광협회 제주관광 명예 홍보대사 위촉장을 전달받았다. 제주관광협회 부동석 회장은 “제주특별자치도관광협회 제주관광 명예 홍보대사로 위촉된 것을 축하드린다”며 “앞으로 제주도의 브랜드 가치를 높이는데 꾸준히 힘써 달라”고 당부했다. 오메가엑스는 향후 2년간 제주도의 위상을 높이는 다양한 홍보 활동을 이어나갈 예정이다. 이에 오메가엑스는 “유네스코 자연경관분야 3관왕을 달성한 아름다운 섬 제주도를 전 세계에 알리는데 부끄럽지 않도록 열심히 활동해서 좋은 노래로 보답하겠다”고 위촉 소감을 밝혔다.한편, 오메가엑스는 올 상반기 데뷔를 앞둔 11인조 신인 보이그룹이다. 그리스 알파벳의 마지막 글자인 오메가(Ω)는 새로운 시작과 꿈을, ‘X’는 무한한 사랑과 희망 등을 상징하며 팬들과의 첫 만남부터 꿈을 이루는 마지막 순간까지 다양한 가치를 함께 실현하겠다는 뜻을 담았다.제주도관광협회 제주관광 명예 홍보대사로 위촉되며 데뷔 전부터 뜻 깊은 행보를 이어가고 있는 오메가엑스에 국내외 팬들의 관심이 집중되고 있다. 맹선미 기자 msm@bizenter.co.kr 저작권자 © 비즈엔터 무단전재 및 재배포 금지 ※ 보도자료 및 기사제보 press@bizenter.co.kr 관련기사 페이스북 트위터 카카오스토리 댓글 실시간 관심기사 새 MC 김신영 투입 2주 전 '전국노래자랑', 충남 보령 편 사회자 이호섭ㆍ임수민 손칼국수 달인, '생활의 달인-은둔식달' 인천 구월동 위치 입소문 자자한 노포 맛집 '안싸우면 다행이야' 섬에서 아이키 남편과 만남 고백…예비신랑과 결혼 앞둔 허니... 전주 미엘 바게트&amp;소금빵 달인 '거미줄 반죽' 1인자…온라인 택배 전국 배달 맛집 '무엇이든 물어보살' 모태솔로 남성 고민에 서장훈 "상대가 여성인 게 문제 아니야" 마곡 칼국수 맛집ㆍ용산 황지살 고기집, 나이 동안 박소현이 반한 '줄서는식당'은? 댓글 스페셜 [주간 윤준필] 만약에… 이수만 프로듀서 없... [주간 윤준필] 이수만의 혜안…SM엔터 프로... 많이 본 기사 1 새 MC 김신영 투입 2주 전 '전국노래자랑', 충남 보령 ... 2 전주 미엘 바게트&amp;소금빵 달인 '거미줄 반죽' 1인자…온... 3 마곡 칼국수 맛집ㆍ용산 황지살 고기집, 나이 동안 박... 4 손칼국수 달인, '생활의 달인-은둔식달' 인천 구월동 ... 5 '안싸우면 다행이야' 섬에서 아이키 남편과 만남 고백…... 6 '무엇이든 물어보살' 모태솔로 남성 고민에 서장훈 "상... 7 '사장님 귀는 당나귀 귀' 에어서울 항공사 김형래 부문... 8 U-18 청소년 국가대표팀 윤영철 등판, '최강야구' 고척... 9 tvN 편성표, 영화 '방법: 재차의 편성'…'작은아씨들 원... 10 임영웅 '보금자리', '더 트롯쇼' 2회 연속 1위…명예의 ... 영상뉴스 넷플릭스 '수리남', 결말까지 흥미로운 실화... 포토갤러리 최신기사 이문세, 서울 파크 콘서트 성료…가을비 속 2만 관... 로이킴, 14일 선공개 싱글 ‘그때로 돌아가’ 발매…... [비즈 스톡] '정직한후보2' 제작 NEW, 주가 3.9% ... 벤, '리본 프로젝트' 참여… 10일 '늘.. (Waiting..... 잔나비, 11월 전국투어 콘서트 개최 ‘기대감 UP’ 빌리 문수아, ‘2022 창원 케이팝 월드페스티벌’ MC... 피아니스트 임윤찬, 11월 라이브 앨범 발매 '배틀 트립 시즌2' 15일 첫 여행, 생생한 힐링 전한다 심규선, 단독 콘서트 성료…팬들 위해 앙코르 공연 ... '아바드림', 은가은ㆍ신인선→故 김성재 '말하자면'... 회사소개 광고 및 제휴 이용약관 개인정보처리방침 청소년보호정책 고충처리 기사심의 ( 윤리강령 | 심의규정 ) 광고심의 ( 윤리강령 | 심의규정 ) ㈜비즈미디어웍스(비즈엔터) ㅣ 서울시 마포구 마포대로 196, 316호(아현동) ㅣ webmaster@bizenter.co.kr ㅣ ☎ 02-2088-7662 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2013.11.07 ㅣ 발행·편집인 : 문연배 ㅣ 청소년보호책임자 : 윤준필 비즈엔터의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright © ㈜비즈미디어웍스. All rights reserved. ㅣ 보도자료 및 기사제보 press@bizenter.co.kr 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 : 윤준필 팀장 02-2088-7662 press@bizenter.co.kr</t>
+    <t>제주도, 가정의달 ‘안전+친절 관광 캠페인’ 전개 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 가정의달 ‘안전+친절 관광 캠페인’ 전개 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 가정의달 ‘안전+친절 관광 캠페인’ 전개 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.05.06 12:15 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 5월 가정의달을 맞아 코로나19 어려운 지역경제에 활력을 불어넣기 위해 ‘안전+친절 제주관광이미지 확산 캠페인’을 통해 관광객들이 체감할 수 있는 안전하고 친절한 청정 제주관광의 이미지를 확산시켜 나갈 계획이라고 6일 밝혔다. 이번 캠페인은 가정의 달을 맞아 위드코로나 시대 방역과 관광 공존을 위해 진해된다. 최근 봄 성수기와 5월 가정의 달 연휴에 맞춰 제주를 찾는 관광객이 증가하고 있으나 불친절, 골프장과 렌터카 등에서의 관광요금 인상 등에 대한 관광 민원도 지속 발생하고 있는 실정이다. 이에 따라 지난 4월 26일 제주관광이미지 제고를 위한 관계기관 및 부서와의 긴급회의를 개최하고, 사업체를 포함해 유관기관 및 관련부서 주관의 ‘안전+친절 제주관광이미지 확산 추진계획’을 마련했다. 주요 중점 추진사항으로는 코로나19 방역계도와 병행해 친절 및 공정가격 등 제주관광 이미지 제고를 위한 활동을 전개한다. 코로나19 방역관련으로는 △5월 가정의 달 방역‧관광 공존의 관광수용태세 계도 △도내 관광사업체 방역물품 지속 지원 △공항 내 코로나19 방역캠페인 전개 등을 지속 추진한다. 이와 함께 관광지 친절 및 공정가격 등 제주관광 이미지 제고를 위해 △건전관광 질서 확립을 위한 불공정행위 합동단속 △도지사 핫라인-관광불편신고센터 운영 △기관 및 부서별 공정가격 받기 자정운동을 전개한다. 김재웅 제주도 관광국장은 “제주도를 중심으로 유관기관 및 도내 관광사업체의 자발적이고 적극적인 방역준수와 친절 및 공정가격 책정을 위한 다양한 캠페인 전개를 통해 청정 관광제주의 이미지 제고를 통한 제주 경기 조기 회복에도 기여할 수 있도록 최선을 다해 나가겠다”고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>밀려드는 제주도 관광객… 4월에만 ‘100만명’ 훌쩍-국민일보 시사 시사 &gt; 전체기사 밀려드는 제주도 관광객… 4월에만 ‘100만명’ 훌쩍 입력 : 2021-05-02 05:37 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 기사 내용과 관련 없는 이미지. 연합뉴스제주도를 찾는 관광객이 지난 4월 100만 명을 훌쩍 넘겼다. 같은 달 제주도에서 발생한 코로나19 확진자 중 다른 지역 사람들이 70%나 됐다는 점에서 코로나 확산을 우려하는 목소리가 높아지고 있다.제주도관광협회는 4월 한 달간 제주를 찾은 관광객 숫자가 106만9888명으로 잠정 집계됐다고 1일 밝혔다. 지난해 같은 기간(54만2천258명)과 비교하면 2배 가까이 늘어난 수치다.코로나 사태가 1년 넘게 이어지며 방역 피로감이 누적되자 봄철 여행에 많이 나선 영향으로 풀이된다.제주도 현지에서는 관광객 증가로 코로나19 확산을 우려하는 목소리도 높아지고 있다.실제로 지난달 제주도에서 발생한 확진자 87명 가운데 62명이 수도권 등 다른 지역을 방문하거나, 다른 지역 확진자와 접촉 등 외부 요인에 의해 감염된 것으로 나타났다.이에 임태봉 제주코로나방역대응추진단장은 “전국적으로 코로나19 확산세가 이어지고 있고, 제주도 누적 확진자가 700명대를 넘었다”면서 “일부 이탈만으로도 방역 효과가 떨어질 수 있는 만큼 사회적 거리두기 및 방역수칙을 준수해 달라”고 말했다.또 “불가피하게 제주에 입도할 계획이 있는 분들은 입도 전 코로나19 음성 확인을 받고 방문해 주기 바란다”고 덧붙였다.김남명 인턴기자 GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 ‘naver.pay’ 주소, 속았다…8천만원 사기친 피싱사이트 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 스페인에선 주전… 94분 뛴 이강인, 팀내 최고평점 부하 직원 엉덩이 때렸는데 정직 1개월…‘솜방망이’ 논란 김영환 지사 “현금복지 후퇴 없다…양해구한다” 한화 창립 70주년, 김승연 회장 “어제를 경계하고 늘 새로워지자” 3년만의 제약 바이오 채용박람회 “프로농구 우승 후보는?” 감독에게 물었더니…SK·KT 막상막하 과학·미래 가치 담았다…UCLG 총회 ‘대전트랙’ 시작 정진석 ‘식민사관’ 발언 논란…유승민 “천박한 발언, 사퇴해야” 경찰 ‘제2의 n번방’ 18명 검거, 3명 구속 잇따르는 경기침체 경고…JP모건 CEO “미·세계 경제에 침체 올 것” 이재호 연수구청장, MZ세대와 소통…역사·문화 공유 최인호 “코레일·SR, 간부급 경조사비 5년간 14억 지급” 대구서 전국동시조합장선거 관련 첫 고발 전주, 후백제∼조선 유산 묶는 ‘왕의 궁원’ 프로젝트 추진 JP모건 CEO “S&amp;P 20% 더 빠질 수 있다” [3분 미국주식]</t>
+  </si>
+  <si>
+    <t>오메가엑스, 제주관광 명예 홍보대사 발탁…“제주도 전 세계에 알릴 것”-비즈엔터 콘텐츠 바로가기 검색 바로가기 주메뉴 바로가기 주요 기사 바로가기 비즈 엔터 스페셜 레저·스포츠 포토·영상 종합 통합검색 검색 검색 비즈엔터 &gt; 엔터 오메가엑스, 제주관광 명예 홍보대사 발탁…“제주도 전 세계에 알릴 것” 기사입력 : 2021-05-10 13:34 페이스북 트위터 카카오스토리 댓글 인쇄 글씨작게 글씨크게 [비즈엔터 맹선미 기자]▲오메가엑스(사진 = 스파이어엔터테인먼트 제공)보이그룹 오메가엑스(OMEGA X)가 제주관광 명예 홍보대사로 활동한다.소속사 스파이어엔터테인먼트는 10일 “오메가엑스가 제주특별자치도관광협회 명예 홍보대사에 위촉됐다”고 밝혔다.오메가엑스는 이날 오전 제주관광협회 회의실에서 제주도관광협회 제주관광 명예 홍보대사 위촉장을 전달받았다. 제주관광협회 부동석 회장은 “제주특별자치도관광협회 제주관광 명예 홍보대사로 위촉된 것을 축하드린다”며 “앞으로 제주도의 브랜드 가치를 높이는데 꾸준히 힘써 달라”고 당부했다. 오메가엑스는 향후 2년간 제주도의 위상을 높이는 다양한 홍보 활동을 이어나갈 예정이다. 이에 오메가엑스는 “유네스코 자연경관분야 3관왕을 달성한 아름다운 섬 제주도를 전 세계에 알리는데 부끄럽지 않도록 열심히 활동해서 좋은 노래로 보답하겠다”고 위촉 소감을 밝혔다.한편, 오메가엑스는 올 상반기 데뷔를 앞둔 11인조 신인 보이그룹이다. 그리스 알파벳의 마지막 글자인 오메가(Ω)는 새로운 시작과 꿈을, ‘X’는 무한한 사랑과 희망 등을 상징하며 팬들과의 첫 만남부터 꿈을 이루는 마지막 순간까지 다양한 가치를 함께 실현하겠다는 뜻을 담았다.제주도관광협회 제주관광 명예 홍보대사로 위촉되며 데뷔 전부터 뜻 깊은 행보를 이어가고 있는 오메가엑스에 국내외 팬들의 관심이 집중되고 있다. 맹선미 기자 msm@bizenter.co.kr 저작권자 © 비즈엔터 무단전재 및 재배포 금지 ※ 보도자료 및 기사제보 press@bizenter.co.kr 관련기사 페이스북 트위터 카카오스토리 댓글 실시간 관심기사 '비아이X레디 소속' 131레이블, 독립 행보 본격화…'청춘 감성 크리에이티브' 기대 선우은숙, 나이 4세 연하 유영재 아나운서와 결혼 "혼인신고 마쳐" '아바드림' 故 김자옥 두 번째 '트리뷰트' 주인공…아바타로 부활한 '공주는 외로워' '앱스토리몰' 캐시워크 돈버는퀴즈 정답은? 신화 신혜성, 도난차량서 음주측정 거부하다 체포 "만취상태, 죄송" '황금가면' 후속 '태풍의 신부', 등장 인물 관계도 전개…박하나ㆍ손창민 출연 댓글 스페셜 [비즈X웨이브 리뷰] '청춘블라썸', 불완전... [김하영의 온더스테이지] '뮤지컬 신화' 10... 많이 본 기사 1 '생활의 달인-은둔식달' 영천 식빵 달인 가게, 직접 재... 2 선우은숙, 나이 4세 연하 유영재 아나운서와 결혼 "혼... 3 '동상이몽2' 임창정 와이프 서하얀, 새 집 불만인 남편... 4 '나이 86세' 현미, 작곡가 이봉조와 러브 스토리→남일... 5 이찬원ㆍ소유, 솔로 데뷔 이채연 위한 특급 조언 "체력... 6 '황금가면' 후속 '태풍의 신부', 등장 인물 관계도 전... 7 도산공원 브런치 카페ㆍ합정 닭볶음탕&amp;김치찜 맛집, 류... 8 '비아이X레디 소속' 131레이블, 독립 행보 본격화…'청... 9 '아바드림' 故 김자옥 두 번째 '트리뷰트' 주인공…아바... 10 '나이 63세' 김병옥, 집에 김희철ㆍ박준규 초대…장성규... 영상뉴스 넷플릭스 '수리남', 결말까지 흥미로운 실화... 포토갤러리 최신기사 김재중, 아시아 투어 태국 콘서트 성료 "변치 않는... 스트레이 키즈, 한터 주간차트 2관왕 '뜨거운 반응' 슈퍼주니어, 쿠알라룸푸르 콘서트 성료…특급 에너... ‘비밀의 집’ 종영 주인공 정헌, 첫 악역 도전 성공... 케플러, 신곡 'We Fresh' M/V 티저 공개…당찬 에너... '비아이X레디 소속' 131레이블, 독립 행보 본격화…... 박진영, 'Groove Back' 댄스 챌린지 스타트 "다음... 김호중 전시회 '별의 노래', 모바일 커머스서 14일... 포레스텔라, 야외 단독 페스티벌 성료 "더 뛰어놀 ... 코카-콜라, 아르떼뮤지엄 ‘드림월드’ 팝업 행사 개... 회사소개 광고 및 제휴 이용약관 개인정보처리방침 청소년보호정책 고충처리 기사심의 ( 윤리강령 | 심의규정 ) 광고심의 ( 윤리강령 | 심의규정 ) ㈜비즈미디어웍스(비즈엔터) ㅣ 서울시 마포구 마포대로 196, 316호(아현동) ㅣ webmaster@bizenter.co.kr ㅣ ☎ 02-2088-7662 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2013.11.07 ㅣ 발행·편집인 : 문연배 ㅣ 청소년보호책임자 : 윤준필 비즈엔터의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright © ㈜비즈미디어웍스. All rights reserved. ㅣ 보도자료 및 기사제보 press@bizenter.co.kr 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 : 윤준필 팀장 02-2088-7662 press@bizenter.co.kr</t>
   </si>
 </sst>
 </file>
@@ -434,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -477,9 +582,6 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -489,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -500,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -511,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -522,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -533,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -543,6 +645,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
@@ -551,8 +656,213 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
